--- a/ExpData.xlsx
+++ b/ExpData.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rossanabettoni/Desktop/PhD/Article_PLOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3B72A0-873B-FF44-B473-D7036E34ABDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26810B1-9523-2D4C-A617-A8ECE4461EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" activeTab="2" xr2:uid="{F78D361A-5398-104E-851E-6180544CA4E4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="11" xr2:uid="{F78D361A-5398-104E-851E-6180544CA4E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell surface contacts" sheetId="9" r:id="rId1"/>
-    <sheet name="Fig 2A" sheetId="1" r:id="rId2"/>
+    <sheet name="Fig 2A &amp; S1A" sheetId="1" r:id="rId2"/>
     <sheet name="Fig 2B" sheetId="2" r:id="rId3"/>
-    <sheet name="Fig 2C" sheetId="3" r:id="rId4"/>
-    <sheet name="Fig 3A" sheetId="4" r:id="rId5"/>
-    <sheet name="Fig 3B" sheetId="5" r:id="rId6"/>
-    <sheet name="Fig 3C" sheetId="6" r:id="rId7"/>
+    <sheet name="Fig 2C &amp; S1D" sheetId="3" r:id="rId4"/>
+    <sheet name="Fig 3A &amp; S3A" sheetId="4" r:id="rId5"/>
+    <sheet name="Fig 3B &amp; S4A" sheetId="5" r:id="rId6"/>
+    <sheet name="Fig 3C &amp; S4B" sheetId="6" r:id="rId7"/>
     <sheet name="Fig 3D" sheetId="7" r:id="rId8"/>
     <sheet name="Fig 3E" sheetId="8" r:id="rId9"/>
-    <sheet name="Fig S1B" sheetId="10" r:id="rId10"/>
-    <sheet name="Fig S1C" sheetId="11" r:id="rId11"/>
+    <sheet name="Fig S1B" sheetId="11" r:id="rId10"/>
+    <sheet name="Fig S1C" sheetId="10" r:id="rId11"/>
+    <sheet name="Cell surface contacts b-line" sheetId="12" r:id="rId12"/>
+    <sheet name="Fig S2" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="80">
   <si>
     <t>a6.5 S1</t>
   </si>
@@ -241,12 +243,57 @@
   <si>
     <t>dpERK</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Rel. contact area with B61 cells</t>
+  </si>
+  <si>
+    <t>Rel. contact area with B62 cells</t>
+  </si>
+  <si>
+    <t>Rel. contact area with B63 cells</t>
+  </si>
+  <si>
+    <t>Rel. contact area with B64 cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rel. contact area with Aline cells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rel. contact area with animal cells </t>
+  </si>
+  <si>
+    <t>cell b6.5</t>
+  </si>
+  <si>
+    <t>Cell b6.6</t>
+  </si>
+  <si>
+    <t>Cell b6.7</t>
+  </si>
+  <si>
+    <t>Cell b6.8</t>
+  </si>
+  <si>
+    <t>b6.5</t>
+  </si>
+  <si>
+    <t>b6.6</t>
+  </si>
+  <si>
+    <t>b6.7</t>
+  </si>
+  <si>
+    <t>b6.8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -294,6 +341,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -303,7 +365,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -311,11 +373,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -347,6 +498,25 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -664,7 +834,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="F2" sqref="F2:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1340,1585 +1510,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D035122-9CF7-A049-A551-30A434266CC7}">
-  <dimension ref="A1:E105"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
-        <v>611.12</v>
-      </c>
-      <c r="B2" s="8">
-        <v>128.01</v>
-      </c>
-      <c r="C2" s="8">
-        <v>328.26</v>
-      </c>
-      <c r="D2" s="8">
-        <v>122.34</v>
-      </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>707.23</v>
-      </c>
-      <c r="B3" s="8">
-        <v>126.21</v>
-      </c>
-      <c r="C3" s="8">
-        <v>182.1</v>
-      </c>
-      <c r="D3" s="8">
-        <v>109.64</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>498.7</v>
-      </c>
-      <c r="B4" s="8">
-        <v>338.1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>418.81</v>
-      </c>
-      <c r="D4" s="8">
-        <v>261.7</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>850.47</v>
-      </c>
-      <c r="B5" s="8">
-        <v>318.72000000000003</v>
-      </c>
-      <c r="C5" s="8">
-        <v>519.58000000000004</v>
-      </c>
-      <c r="D5" s="8">
-        <v>202.61</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>654.28</v>
-      </c>
-      <c r="B6" s="8">
-        <v>181.55</v>
-      </c>
-      <c r="C6" s="8">
-        <v>212.89</v>
-      </c>
-      <c r="D6" s="8">
-        <v>153.68</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
-        <v>1016.41</v>
-      </c>
-      <c r="B7" s="8">
-        <v>231.99</v>
-      </c>
-      <c r="C7" s="8">
-        <v>554.62</v>
-      </c>
-      <c r="D7" s="8">
-        <v>183.4</v>
-      </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>838.87</v>
-      </c>
-      <c r="B8" s="8">
-        <v>263.61</v>
-      </c>
-      <c r="C8" s="8">
-        <v>484.43</v>
-      </c>
-      <c r="D8" s="8">
-        <v>291.67</v>
-      </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
-        <v>746.09</v>
-      </c>
-      <c r="B9" s="8">
-        <v>322.36</v>
-      </c>
-      <c r="C9" s="8">
-        <v>358.38</v>
-      </c>
-      <c r="D9" s="8">
-        <v>201.77</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>642.27</v>
-      </c>
-      <c r="B10" s="8">
-        <v>157.26</v>
-      </c>
-      <c r="C10" s="8">
-        <v>338.54</v>
-      </c>
-      <c r="D10" s="8">
-        <v>152.54</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
-        <v>609.51</v>
-      </c>
-      <c r="B11" s="8">
-        <v>102.71</v>
-      </c>
-      <c r="C11" s="8">
-        <v>185.71</v>
-      </c>
-      <c r="D11" s="8">
-        <v>98.49</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
-        <v>920.07</v>
-      </c>
-      <c r="B12" s="8">
-        <v>338.66</v>
-      </c>
-      <c r="C12" s="8">
-        <v>497.63</v>
-      </c>
-      <c r="D12" s="8">
-        <v>330.49</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
-        <v>926.49</v>
-      </c>
-      <c r="B13" s="8">
-        <v>305.25</v>
-      </c>
-      <c r="C13" s="8">
-        <v>572.87</v>
-      </c>
-      <c r="D13" s="8">
-        <v>233.59</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>1106.6199999999999</v>
-      </c>
-      <c r="B14" s="8">
-        <v>280.63</v>
-      </c>
-      <c r="C14" s="8">
-        <v>626.12</v>
-      </c>
-      <c r="D14" s="8">
-        <v>263.45</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
-        <v>1009.8</v>
-      </c>
-      <c r="B15" s="8">
-        <v>298.41000000000003</v>
-      </c>
-      <c r="C15" s="8">
-        <v>510.95</v>
-      </c>
-      <c r="D15" s="8">
-        <v>294.01</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
-        <v>715.9</v>
-      </c>
-      <c r="B16" s="8">
-        <v>167.84</v>
-      </c>
-      <c r="C16" s="8">
-        <v>351.18</v>
-      </c>
-      <c r="D16" s="8">
-        <v>156.58000000000001</v>
-      </c>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
-        <v>561.57000000000005</v>
-      </c>
-      <c r="B17" s="8">
-        <v>114.72</v>
-      </c>
-      <c r="C17" s="8">
-        <v>287.75</v>
-      </c>
-      <c r="D17" s="8">
-        <v>114.06</v>
-      </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
-        <v>1337.5</v>
-      </c>
-      <c r="B18" s="8">
-        <v>333.76</v>
-      </c>
-      <c r="C18" s="8">
-        <v>539.76</v>
-      </c>
-      <c r="D18" s="8">
-        <v>269.93</v>
-      </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
-        <v>895.74</v>
-      </c>
-      <c r="B19" s="8">
-        <v>354.36</v>
-      </c>
-      <c r="C19" s="8">
-        <v>470.97</v>
-      </c>
-      <c r="D19" s="8">
-        <v>150.74</v>
-      </c>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>678.09</v>
-      </c>
-      <c r="B20" s="8">
-        <v>204.7</v>
-      </c>
-      <c r="C20" s="8">
-        <v>408.82</v>
-      </c>
-      <c r="D20" s="8">
-        <v>216.4</v>
-      </c>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
-        <v>764.76</v>
-      </c>
-      <c r="B21" s="8">
-        <v>239.85</v>
-      </c>
-      <c r="C21" s="8">
-        <v>346.1</v>
-      </c>
-      <c r="D21" s="8">
-        <v>236.18</v>
-      </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8">
-        <v>1359.76</v>
-      </c>
-      <c r="B22" s="8">
-        <v>349.14</v>
-      </c>
-      <c r="C22" s="8">
-        <v>584.29999999999995</v>
-      </c>
-      <c r="D22" s="8">
-        <v>276.31</v>
-      </c>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>724.87</v>
-      </c>
-      <c r="B23" s="8">
-        <v>223.54</v>
-      </c>
-      <c r="C23" s="8">
-        <v>396.85</v>
-      </c>
-      <c r="D23" s="8">
-        <v>209.58</v>
-      </c>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8">
-        <v>632.15</v>
-      </c>
-      <c r="B24" s="8">
-        <v>286.60000000000002</v>
-      </c>
-      <c r="C24" s="8">
-        <v>530.95000000000005</v>
-      </c>
-      <c r="D24" s="8">
-        <v>229.49</v>
-      </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8">
-        <v>761.83</v>
-      </c>
-      <c r="B25" s="8">
-        <v>185.33</v>
-      </c>
-      <c r="C25" s="8">
-        <v>382.76</v>
-      </c>
-      <c r="D25" s="8">
-        <v>179.14</v>
-      </c>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8">
-        <v>652.69000000000005</v>
-      </c>
-      <c r="B26" s="8">
-        <v>301.12</v>
-      </c>
-      <c r="C26" s="8">
-        <v>511.43</v>
-      </c>
-      <c r="D26" s="8">
-        <v>270.02999999999997</v>
-      </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8">
-        <v>486.07</v>
-      </c>
-      <c r="B27" s="8">
-        <v>315.95999999999998</v>
-      </c>
-      <c r="C27" s="8">
-        <v>508.05</v>
-      </c>
-      <c r="D27" s="8">
-        <v>306.48</v>
-      </c>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8">
-        <v>587.49</v>
-      </c>
-      <c r="B28" s="8">
-        <v>160.36000000000001</v>
-      </c>
-      <c r="C28" s="8">
-        <v>210.35</v>
-      </c>
-      <c r="D28" s="8">
-        <v>119.83</v>
-      </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="8">
-        <v>721.2</v>
-      </c>
-      <c r="B29" s="8">
-        <v>170.14</v>
-      </c>
-      <c r="C29" s="8">
-        <v>389.34</v>
-      </c>
-      <c r="D29" s="8">
-        <v>165.23</v>
-      </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8">
-        <v>910.55</v>
-      </c>
-      <c r="B30" s="8">
-        <v>212.48</v>
-      </c>
-      <c r="C30" s="8">
-        <v>442.92</v>
-      </c>
-      <c r="D30" s="8">
-        <v>246.37</v>
-      </c>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="8">
-        <v>675.3</v>
-      </c>
-      <c r="B31" s="8">
-        <v>224.44</v>
-      </c>
-      <c r="C31" s="8">
-        <v>353</v>
-      </c>
-      <c r="D31" s="8">
-        <v>158.63999999999999</v>
-      </c>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="8">
-        <v>675.96</v>
-      </c>
-      <c r="B32" s="8">
-        <v>199.38</v>
-      </c>
-      <c r="C32" s="8">
-        <v>422.24</v>
-      </c>
-      <c r="D32" s="8">
-        <v>240.62</v>
-      </c>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>866.41</v>
-      </c>
-      <c r="B33" s="8">
-        <v>201.17</v>
-      </c>
-      <c r="C33" s="8">
-        <v>300.44</v>
-      </c>
-      <c r="D33" s="8">
-        <v>140.15</v>
-      </c>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="8">
-        <v>645.9</v>
-      </c>
-      <c r="B34" s="8">
-        <v>198.87</v>
-      </c>
-      <c r="C34" s="8">
-        <v>296.94</v>
-      </c>
-      <c r="D34" s="8">
-        <v>163.09</v>
-      </c>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="8">
-        <v>497.04</v>
-      </c>
-      <c r="B35" s="8">
-        <v>113.23</v>
-      </c>
-      <c r="C35" s="8">
-        <v>124.49</v>
-      </c>
-      <c r="D35" s="8">
-        <v>102.87</v>
-      </c>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="8">
-        <v>962.74</v>
-      </c>
-      <c r="B36" s="8">
-        <v>286.27</v>
-      </c>
-      <c r="C36" s="8">
-        <v>684.48</v>
-      </c>
-      <c r="D36" s="8">
-        <v>266.05</v>
-      </c>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="8">
-        <v>509.71</v>
-      </c>
-      <c r="B37" s="8">
-        <v>106.61</v>
-      </c>
-      <c r="C37" s="8">
-        <v>269.73</v>
-      </c>
-      <c r="D37" s="8">
-        <v>86.52</v>
-      </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="8">
-        <v>725.27</v>
-      </c>
-      <c r="B38" s="8">
-        <v>289.36</v>
-      </c>
-      <c r="C38" s="8">
-        <v>340.3</v>
-      </c>
-      <c r="D38" s="8">
-        <v>191.42</v>
-      </c>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="8">
-        <v>603.09</v>
-      </c>
-      <c r="B39" s="8">
-        <v>166.61</v>
-      </c>
-      <c r="C39" s="8">
-        <v>314.94</v>
-      </c>
-      <c r="D39" s="8">
-        <v>154.47999999999999</v>
-      </c>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="8">
-        <v>878.99</v>
-      </c>
-      <c r="B40" s="8">
-        <v>200.87</v>
-      </c>
-      <c r="C40" s="8">
-        <v>429.27</v>
-      </c>
-      <c r="D40" s="8">
-        <v>210.54</v>
-      </c>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="8">
-        <v>686.1</v>
-      </c>
-      <c r="B41" s="8">
-        <v>270.12</v>
-      </c>
-      <c r="C41" s="8">
-        <v>335.77</v>
-      </c>
-      <c r="D41" s="8">
-        <v>160.08000000000001</v>
-      </c>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="8">
-        <v>831.59</v>
-      </c>
-      <c r="B42" s="8">
-        <v>175.82</v>
-      </c>
-      <c r="C42" s="8">
-        <v>424.8</v>
-      </c>
-      <c r="D42" s="8">
-        <v>152.09</v>
-      </c>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="8">
-        <v>555.29</v>
-      </c>
-      <c r="B43" s="8">
-        <v>192.96</v>
-      </c>
-      <c r="C43" s="8">
-        <v>311.19</v>
-      </c>
-      <c r="D43" s="8">
-        <v>147.69</v>
-      </c>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="8">
-        <v>800.48</v>
-      </c>
-      <c r="B44" s="8">
-        <v>185.3</v>
-      </c>
-      <c r="C44" s="8">
-        <v>348.15</v>
-      </c>
-      <c r="D44" s="8">
-        <v>168.15</v>
-      </c>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="8">
-        <v>645.07000000000005</v>
-      </c>
-      <c r="B45" s="8">
-        <v>224.25</v>
-      </c>
-      <c r="C45" s="8">
-        <v>359.46</v>
-      </c>
-      <c r="D45" s="8">
-        <v>200.1</v>
-      </c>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="8">
-        <v>682.65</v>
-      </c>
-      <c r="B46" s="8">
-        <v>256.39</v>
-      </c>
-      <c r="C46" s="8">
-        <v>488.8</v>
-      </c>
-      <c r="D46" s="8">
-        <v>274.48</v>
-      </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="8">
-        <v>317.38</v>
-      </c>
-      <c r="B47" s="8">
-        <v>92.76</v>
-      </c>
-      <c r="C47" s="8">
-        <v>165.01</v>
-      </c>
-      <c r="D47" s="8">
-        <v>84.16</v>
-      </c>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="8">
-        <v>685.57</v>
-      </c>
-      <c r="B48" s="8">
-        <v>131.94999999999999</v>
-      </c>
-      <c r="C48" s="8">
-        <v>295.18</v>
-      </c>
-      <c r="D48" s="8">
-        <v>115.53</v>
-      </c>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="8">
-        <v>590.65</v>
-      </c>
-      <c r="B49" s="8">
-        <v>208.72</v>
-      </c>
-      <c r="C49" s="8">
-        <v>454.23</v>
-      </c>
-      <c r="D49" s="8">
-        <v>127.9</v>
-      </c>
-      <c r="E49" s="8"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="8">
-        <v>644.27</v>
-      </c>
-      <c r="B50" s="8">
-        <v>153.97</v>
-      </c>
-      <c r="C50" s="8">
-        <v>323.20999999999998</v>
-      </c>
-      <c r="D50" s="8">
-        <v>144.21</v>
-      </c>
-      <c r="E50" s="8"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="8">
-        <v>1177.4100000000001</v>
-      </c>
-      <c r="B51" s="8">
-        <v>335.42</v>
-      </c>
-      <c r="C51" s="8">
-        <v>501.81</v>
-      </c>
-      <c r="D51" s="8">
-        <v>243.89</v>
-      </c>
-      <c r="E51" s="8"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="8">
-        <v>812.25</v>
-      </c>
-      <c r="B52" s="8">
-        <v>212.06</v>
-      </c>
-      <c r="C52" s="8">
-        <v>404.22</v>
-      </c>
-      <c r="D52" s="8">
-        <v>175.82</v>
-      </c>
-      <c r="E52" s="8"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="8">
-        <v>537.42999999999995</v>
-      </c>
-      <c r="B53" s="8">
-        <v>127.7</v>
-      </c>
-      <c r="C53" s="8">
-        <v>446.31</v>
-      </c>
-      <c r="D53" s="8">
-        <v>118.38</v>
-      </c>
-      <c r="E53" s="8"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="8">
-        <v>620.86</v>
-      </c>
-      <c r="B54" s="8">
-        <v>123.19</v>
-      </c>
-      <c r="C54" s="8">
-        <v>306</v>
-      </c>
-      <c r="D54" s="8">
-        <v>124.66</v>
-      </c>
-      <c r="E54" s="8"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="8">
-        <v>761.21</v>
-      </c>
-      <c r="B55" s="8">
-        <v>307.10000000000002</v>
-      </c>
-      <c r="C55" s="8">
-        <v>450.75</v>
-      </c>
-      <c r="D55" s="8">
-        <v>272.91000000000003</v>
-      </c>
-      <c r="E55" s="8"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="8">
-        <v>1107.75</v>
-      </c>
-      <c r="B56" s="8">
-        <v>486.25</v>
-      </c>
-      <c r="C56" s="8">
-        <v>710.46</v>
-      </c>
-      <c r="D56" s="8">
-        <v>326.82</v>
-      </c>
-      <c r="E56" s="8"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="8">
-        <v>594.34</v>
-      </c>
-      <c r="B57" s="8">
-        <v>264.75</v>
-      </c>
-      <c r="C57" s="8">
-        <v>341.4</v>
-      </c>
-      <c r="D57" s="8">
-        <v>181.06</v>
-      </c>
-      <c r="E57" s="8"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="8">
-        <v>871.06</v>
-      </c>
-      <c r="B58" s="8">
-        <v>210.86</v>
-      </c>
-      <c r="C58" s="8">
-        <v>438.16</v>
-      </c>
-      <c r="D58" s="8">
-        <v>152.86000000000001</v>
-      </c>
-      <c r="E58" s="8"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="8">
-        <v>711.97</v>
-      </c>
-      <c r="B59" s="8">
-        <v>225.37</v>
-      </c>
-      <c r="C59" s="8">
-        <v>387.66</v>
-      </c>
-      <c r="D59" s="8">
-        <v>202.41</v>
-      </c>
-      <c r="E59" s="8"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="8">
-        <v>858.57</v>
-      </c>
-      <c r="B60" s="8">
-        <v>322.36</v>
-      </c>
-      <c r="C60" s="8">
-        <v>496.29</v>
-      </c>
-      <c r="D60" s="8">
-        <v>257.08999999999997</v>
-      </c>
-      <c r="E60" s="8"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="8">
-        <v>684.17</v>
-      </c>
-      <c r="B61" s="8">
-        <v>195.33</v>
-      </c>
-      <c r="C61" s="8">
-        <v>524.97</v>
-      </c>
-      <c r="D61" s="8">
-        <v>221.77</v>
-      </c>
-      <c r="E61" s="8"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="8">
-        <v>987.31</v>
-      </c>
-      <c r="B62" s="8">
-        <v>157.80000000000001</v>
-      </c>
-      <c r="C62" s="8">
-        <v>315</v>
-      </c>
-      <c r="D62" s="8">
-        <v>141.08000000000001</v>
-      </c>
-      <c r="E62" s="8"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="8">
-        <v>795.5</v>
-      </c>
-      <c r="B63" s="8">
-        <v>385.51</v>
-      </c>
-      <c r="C63" s="8">
-        <v>657.28</v>
-      </c>
-      <c r="D63" s="8">
-        <v>444</v>
-      </c>
-      <c r="E63" s="8"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="8">
-        <v>1208.05</v>
-      </c>
-      <c r="B64" s="8">
-        <v>321.64</v>
-      </c>
-      <c r="C64" s="8">
-        <v>519.98</v>
-      </c>
-      <c r="D64" s="8">
-        <v>269.88</v>
-      </c>
-      <c r="E64" s="8"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="8">
-        <v>1209.51</v>
-      </c>
-      <c r="B65" s="8">
-        <v>274.39999999999998</v>
-      </c>
-      <c r="C65" s="8">
-        <v>633.46</v>
-      </c>
-      <c r="D65" s="8">
-        <v>312.41000000000003</v>
-      </c>
-      <c r="E65" s="8"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="8">
-        <v>747.91</v>
-      </c>
-      <c r="B66" s="8">
-        <v>235.95</v>
-      </c>
-      <c r="C66" s="8">
-        <v>452.27</v>
-      </c>
-      <c r="D66" s="8">
-        <v>206.6</v>
-      </c>
-      <c r="E66" s="8"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="8">
-        <v>805.22</v>
-      </c>
-      <c r="B67" s="8">
-        <v>155.79</v>
-      </c>
-      <c r="C67" s="8">
-        <v>400.49</v>
-      </c>
-      <c r="D67" s="8">
-        <v>153.07</v>
-      </c>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="8">
-        <v>567.01</v>
-      </c>
-      <c r="B68" s="8">
-        <v>101.3</v>
-      </c>
-      <c r="C68" s="8">
-        <v>233.36</v>
-      </c>
-      <c r="D68" s="8">
-        <v>86.07</v>
-      </c>
-      <c r="E68" s="8"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="8">
-        <v>925.21</v>
-      </c>
-      <c r="B69" s="8">
-        <v>253.42</v>
-      </c>
-      <c r="C69" s="8">
-        <v>422.59</v>
-      </c>
-      <c r="D69" s="8">
-        <v>195.75</v>
-      </c>
-      <c r="E69" s="8"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="8">
-        <v>905.04</v>
-      </c>
-      <c r="B70" s="8">
-        <v>284.35000000000002</v>
-      </c>
-      <c r="C70" s="8">
-        <v>446.36</v>
-      </c>
-      <c r="D70" s="8">
-        <v>161.91999999999999</v>
-      </c>
-      <c r="E70" s="8"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="8">
-        <v>941.53</v>
-      </c>
-      <c r="B71" s="8">
-        <v>200.87</v>
-      </c>
-      <c r="C71" s="8">
-        <v>324.95999999999998</v>
-      </c>
-      <c r="D71" s="8">
-        <v>161.71</v>
-      </c>
-      <c r="E71" s="8"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="8">
-        <v>898.45</v>
-      </c>
-      <c r="B72" s="8">
-        <v>248.52</v>
-      </c>
-      <c r="C72" s="8">
-        <v>493.44</v>
-      </c>
-      <c r="D72" s="8">
-        <v>272.73</v>
-      </c>
-      <c r="E72" s="8"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="8">
-        <v>1124.8499999999999</v>
-      </c>
-      <c r="B73" s="8">
-        <v>311.60000000000002</v>
-      </c>
-      <c r="C73" s="8">
-        <v>618.80999999999995</v>
-      </c>
-      <c r="D73" s="8">
-        <v>293.69</v>
-      </c>
-      <c r="E73" s="8"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="8">
-        <v>852.63</v>
-      </c>
-      <c r="B74" s="8">
-        <v>296.56</v>
-      </c>
-      <c r="C74" s="8">
-        <v>421.98</v>
-      </c>
-      <c r="D74" s="8">
-        <v>234.79</v>
-      </c>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="8">
-        <v>954.63</v>
-      </c>
-      <c r="B75" s="8">
-        <v>373.8</v>
-      </c>
-      <c r="C75" s="8">
-        <v>411.35</v>
-      </c>
-      <c r="D75" s="8">
-        <v>252.69</v>
-      </c>
-      <c r="E75" s="8"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="8">
-        <v>848.71</v>
-      </c>
-      <c r="B76" s="8">
-        <v>340.67</v>
-      </c>
-      <c r="C76" s="8">
-        <v>602.09</v>
-      </c>
-      <c r="D76" s="8">
-        <v>147.16999999999999</v>
-      </c>
-      <c r="E76" s="8"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="8">
-        <v>665.44</v>
-      </c>
-      <c r="B77" s="8">
-        <v>214.68</v>
-      </c>
-      <c r="C77" s="8">
-        <v>427.7</v>
-      </c>
-      <c r="D77" s="8">
-        <v>216.48</v>
-      </c>
-      <c r="E77" s="8"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="8">
-        <v>580.19000000000005</v>
-      </c>
-      <c r="B78" s="8">
-        <v>279.64999999999998</v>
-      </c>
-      <c r="C78" s="8">
-        <v>417.63</v>
-      </c>
-      <c r="D78" s="8">
-        <v>230.2</v>
-      </c>
-      <c r="E78" s="8"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="8">
-        <v>672.94</v>
-      </c>
-      <c r="B79" s="8">
-        <v>149.11000000000001</v>
-      </c>
-      <c r="C79" s="8">
-        <v>395.56</v>
-      </c>
-      <c r="D79" s="8">
-        <v>151.77000000000001</v>
-      </c>
-      <c r="E79" s="8"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="8">
-        <v>681.99</v>
-      </c>
-      <c r="B80" s="8">
-        <v>150.74</v>
-      </c>
-      <c r="C80" s="8">
-        <v>307.19</v>
-      </c>
-      <c r="D80" s="8">
-        <v>155.66</v>
-      </c>
-      <c r="E80" s="8"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="8">
-        <v>912.3</v>
-      </c>
-      <c r="B81" s="8">
-        <v>232.8</v>
-      </c>
-      <c r="C81" s="8">
-        <v>374.97</v>
-      </c>
-      <c r="D81" s="8">
-        <v>182.58</v>
-      </c>
-      <c r="E81" s="8"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
-        <v>868.92</v>
-      </c>
-      <c r="B82" s="8">
-        <v>208.94</v>
-      </c>
-      <c r="C82" s="8">
-        <v>380.89</v>
-      </c>
-      <c r="D82" s="8">
-        <v>176.01</v>
-      </c>
-      <c r="E82" s="8"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="8">
-        <v>735.63</v>
-      </c>
-      <c r="B83" s="8">
-        <v>255.68</v>
-      </c>
-      <c r="C83" s="8">
-        <v>502.39</v>
-      </c>
-      <c r="D83" s="8">
-        <v>255.49</v>
-      </c>
-      <c r="E83" s="8"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
-        <v>740.97</v>
-      </c>
-      <c r="B84" s="8">
-        <v>224.92</v>
-      </c>
-      <c r="C84" s="8">
-        <v>445.63</v>
-      </c>
-      <c r="D84" s="8">
-        <v>232.31</v>
-      </c>
-      <c r="E84" s="8"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="8">
-        <v>785.83</v>
-      </c>
-      <c r="B85" s="8">
-        <v>214.9</v>
-      </c>
-      <c r="C85" s="8">
-        <v>312.2</v>
-      </c>
-      <c r="D85" s="8">
-        <v>177.05</v>
-      </c>
-      <c r="E85" s="8"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
-        <v>446.61</v>
-      </c>
-      <c r="B86" s="8">
-        <v>117.34</v>
-      </c>
-      <c r="C86" s="8">
-        <v>209.3</v>
-      </c>
-      <c r="D86" s="8">
-        <v>74.45</v>
-      </c>
-      <c r="E86" s="8"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="8">
-        <v>1073.42</v>
-      </c>
-      <c r="B87" s="8">
-        <v>319.81</v>
-      </c>
-      <c r="C87" s="8">
-        <v>657.45</v>
-      </c>
-      <c r="D87" s="8">
-        <v>428.33</v>
-      </c>
-      <c r="E87" s="8"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
-        <v>526.16</v>
-      </c>
-      <c r="B88" s="8">
-        <v>139.41</v>
-      </c>
-      <c r="C88" s="8">
-        <v>330.89</v>
-      </c>
-      <c r="D88" s="8">
-        <v>110.02</v>
-      </c>
-      <c r="E88" s="8"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
-        <v>680.45</v>
-      </c>
-      <c r="B89" s="8">
-        <v>250.2</v>
-      </c>
-      <c r="C89" s="8">
-        <v>486.56</v>
-      </c>
-      <c r="D89" s="8">
-        <v>251.13</v>
-      </c>
-      <c r="E89" s="8"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
-        <v>625.46</v>
-      </c>
-      <c r="B90" s="8">
-        <v>182.35</v>
-      </c>
-      <c r="C90" s="8">
-        <v>457.46</v>
-      </c>
-      <c r="D90" s="8">
-        <v>153.62</v>
-      </c>
-      <c r="E90" s="8"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="8">
-        <v>841.51</v>
-      </c>
-      <c r="B91" s="8">
-        <v>232.18</v>
-      </c>
-      <c r="C91" s="8">
-        <v>458.62</v>
-      </c>
-      <c r="D91" s="8">
-        <v>179.56</v>
-      </c>
-      <c r="E91" s="8"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="8">
-        <v>721.66</v>
-      </c>
-      <c r="B92" s="8">
-        <v>245.77</v>
-      </c>
-      <c r="C92" s="8">
-        <v>469.53</v>
-      </c>
-      <c r="D92" s="8">
-        <v>225.18</v>
-      </c>
-      <c r="E92" s="8"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="8">
-        <v>943.2</v>
-      </c>
-      <c r="B93" s="8">
-        <v>209.05</v>
-      </c>
-      <c r="C93" s="8">
-        <v>497.75</v>
-      </c>
-      <c r="D93" s="8">
-        <v>146.94</v>
-      </c>
-      <c r="E93" s="8"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="8">
-        <v>672.18</v>
-      </c>
-      <c r="B94" s="8">
-        <v>217.05</v>
-      </c>
-      <c r="C94" s="8">
-        <v>310.52999999999997</v>
-      </c>
-      <c r="D94" s="8">
-        <v>141.51</v>
-      </c>
-      <c r="E94" s="8"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="8">
-        <v>730.27</v>
-      </c>
-      <c r="B95" s="8">
-        <v>196</v>
-      </c>
-      <c r="C95" s="8">
-        <v>383.38</v>
-      </c>
-      <c r="D95" s="8">
-        <v>186.85</v>
-      </c>
-      <c r="E95" s="8"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="8">
-        <v>462.1</v>
-      </c>
-      <c r="B96" s="8">
-        <v>184.96</v>
-      </c>
-      <c r="C96" s="8">
-        <v>333.4</v>
-      </c>
-      <c r="D96" s="8">
-        <v>133.19</v>
-      </c>
-      <c r="E96" s="8"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="8">
-        <v>775.16</v>
-      </c>
-      <c r="B97" s="8">
-        <v>246.57</v>
-      </c>
-      <c r="C97" s="8">
-        <v>581.92999999999995</v>
-      </c>
-      <c r="D97" s="8">
-        <v>290.55</v>
-      </c>
-      <c r="E97" s="8"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="8">
-        <v>304.60000000000002</v>
-      </c>
-      <c r="B98" s="8">
-        <v>93.65</v>
-      </c>
-      <c r="C98" s="8">
-        <v>222.28</v>
-      </c>
-      <c r="D98" s="8">
-        <v>86.16</v>
-      </c>
-      <c r="E98" s="8"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="8">
-        <v>738.43</v>
-      </c>
-      <c r="B99" s="8">
-        <v>134.82</v>
-      </c>
-      <c r="C99" s="8">
-        <v>319.61</v>
-      </c>
-      <c r="D99" s="8">
-        <v>109.79</v>
-      </c>
-      <c r="E99" s="8"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
-        <v>730.54</v>
-      </c>
-      <c r="B100" s="8">
-        <v>197.84</v>
-      </c>
-      <c r="C100" s="8">
-        <v>342.68</v>
-      </c>
-      <c r="D100" s="8">
-        <v>180.52</v>
-      </c>
-      <c r="E100" s="8"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="8">
-        <v>699.5</v>
-      </c>
-      <c r="B101" s="8">
-        <v>169.86</v>
-      </c>
-      <c r="C101" s="8">
-        <v>230.72</v>
-      </c>
-      <c r="D101" s="8">
-        <v>130.43</v>
-      </c>
-      <c r="E101" s="8"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
-        <v>788.51</v>
-      </c>
-      <c r="B102" s="8">
-        <v>288.24</v>
-      </c>
-      <c r="C102" s="8">
-        <v>569.13</v>
-      </c>
-      <c r="D102" s="8">
-        <v>284.04000000000002</v>
-      </c>
-      <c r="E102" s="8"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="8">
-        <v>610.21</v>
-      </c>
-      <c r="B103" s="8">
-        <v>264.24</v>
-      </c>
-      <c r="C103" s="8">
-        <v>398.04</v>
-      </c>
-      <c r="D103" s="8">
-        <v>208.97</v>
-      </c>
-      <c r="E103" s="8"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E5FE41-3E5F-3146-91A6-3448480A96D6}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3726,12 +2322,5893 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D035122-9CF7-A049-A551-30A434266CC7}">
+  <dimension ref="A1:E105"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>611.12</v>
+      </c>
+      <c r="B2" s="8">
+        <v>128.01</v>
+      </c>
+      <c r="C2" s="8">
+        <v>328.26</v>
+      </c>
+      <c r="D2" s="8">
+        <v>122.34</v>
+      </c>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>707.23</v>
+      </c>
+      <c r="B3" s="8">
+        <v>126.21</v>
+      </c>
+      <c r="C3" s="8">
+        <v>182.1</v>
+      </c>
+      <c r="D3" s="8">
+        <v>109.64</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>498.7</v>
+      </c>
+      <c r="B4" s="8">
+        <v>338.1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>418.81</v>
+      </c>
+      <c r="D4" s="8">
+        <v>261.7</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>850.47</v>
+      </c>
+      <c r="B5" s="8">
+        <v>318.72000000000003</v>
+      </c>
+      <c r="C5" s="8">
+        <v>519.58000000000004</v>
+      </c>
+      <c r="D5" s="8">
+        <v>202.61</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>654.28</v>
+      </c>
+      <c r="B6" s="8">
+        <v>181.55</v>
+      </c>
+      <c r="C6" s="8">
+        <v>212.89</v>
+      </c>
+      <c r="D6" s="8">
+        <v>153.68</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>1016.41</v>
+      </c>
+      <c r="B7" s="8">
+        <v>231.99</v>
+      </c>
+      <c r="C7" s="8">
+        <v>554.62</v>
+      </c>
+      <c r="D7" s="8">
+        <v>183.4</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>838.87</v>
+      </c>
+      <c r="B8" s="8">
+        <v>263.61</v>
+      </c>
+      <c r="C8" s="8">
+        <v>484.43</v>
+      </c>
+      <c r="D8" s="8">
+        <v>291.67</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
+        <v>746.09</v>
+      </c>
+      <c r="B9" s="8">
+        <v>322.36</v>
+      </c>
+      <c r="C9" s="8">
+        <v>358.38</v>
+      </c>
+      <c r="D9" s="8">
+        <v>201.77</v>
+      </c>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>642.27</v>
+      </c>
+      <c r="B10" s="8">
+        <v>157.26</v>
+      </c>
+      <c r="C10" s="8">
+        <v>338.54</v>
+      </c>
+      <c r="D10" s="8">
+        <v>152.54</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>609.51</v>
+      </c>
+      <c r="B11" s="8">
+        <v>102.71</v>
+      </c>
+      <c r="C11" s="8">
+        <v>185.71</v>
+      </c>
+      <c r="D11" s="8">
+        <v>98.49</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>920.07</v>
+      </c>
+      <c r="B12" s="8">
+        <v>338.66</v>
+      </c>
+      <c r="C12" s="8">
+        <v>497.63</v>
+      </c>
+      <c r="D12" s="8">
+        <v>330.49</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>926.49</v>
+      </c>
+      <c r="B13" s="8">
+        <v>305.25</v>
+      </c>
+      <c r="C13" s="8">
+        <v>572.87</v>
+      </c>
+      <c r="D13" s="8">
+        <v>233.59</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>1106.6199999999999</v>
+      </c>
+      <c r="B14" s="8">
+        <v>280.63</v>
+      </c>
+      <c r="C14" s="8">
+        <v>626.12</v>
+      </c>
+      <c r="D14" s="8">
+        <v>263.45</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
+        <v>1009.8</v>
+      </c>
+      <c r="B15" s="8">
+        <v>298.41000000000003</v>
+      </c>
+      <c r="C15" s="8">
+        <v>510.95</v>
+      </c>
+      <c r="D15" s="8">
+        <v>294.01</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
+        <v>715.9</v>
+      </c>
+      <c r="B16" s="8">
+        <v>167.84</v>
+      </c>
+      <c r="C16" s="8">
+        <v>351.18</v>
+      </c>
+      <c r="D16" s="8">
+        <v>156.58000000000001</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>561.57000000000005</v>
+      </c>
+      <c r="B17" s="8">
+        <v>114.72</v>
+      </c>
+      <c r="C17" s="8">
+        <v>287.75</v>
+      </c>
+      <c r="D17" s="8">
+        <v>114.06</v>
+      </c>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>1337.5</v>
+      </c>
+      <c r="B18" s="8">
+        <v>333.76</v>
+      </c>
+      <c r="C18" s="8">
+        <v>539.76</v>
+      </c>
+      <c r="D18" s="8">
+        <v>269.93</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>895.74</v>
+      </c>
+      <c r="B19" s="8">
+        <v>354.36</v>
+      </c>
+      <c r="C19" s="8">
+        <v>470.97</v>
+      </c>
+      <c r="D19" s="8">
+        <v>150.74</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>678.09</v>
+      </c>
+      <c r="B20" s="8">
+        <v>204.7</v>
+      </c>
+      <c r="C20" s="8">
+        <v>408.82</v>
+      </c>
+      <c r="D20" s="8">
+        <v>216.4</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>764.76</v>
+      </c>
+      <c r="B21" s="8">
+        <v>239.85</v>
+      </c>
+      <c r="C21" s="8">
+        <v>346.1</v>
+      </c>
+      <c r="D21" s="8">
+        <v>236.18</v>
+      </c>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>1359.76</v>
+      </c>
+      <c r="B22" s="8">
+        <v>349.14</v>
+      </c>
+      <c r="C22" s="8">
+        <v>584.29999999999995</v>
+      </c>
+      <c r="D22" s="8">
+        <v>276.31</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>724.87</v>
+      </c>
+      <c r="B23" s="8">
+        <v>223.54</v>
+      </c>
+      <c r="C23" s="8">
+        <v>396.85</v>
+      </c>
+      <c r="D23" s="8">
+        <v>209.58</v>
+      </c>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
+        <v>632.15</v>
+      </c>
+      <c r="B24" s="8">
+        <v>286.60000000000002</v>
+      </c>
+      <c r="C24" s="8">
+        <v>530.95000000000005</v>
+      </c>
+      <c r="D24" s="8">
+        <v>229.49</v>
+      </c>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>761.83</v>
+      </c>
+      <c r="B25" s="8">
+        <v>185.33</v>
+      </c>
+      <c r="C25" s="8">
+        <v>382.76</v>
+      </c>
+      <c r="D25" s="8">
+        <v>179.14</v>
+      </c>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
+        <v>652.69000000000005</v>
+      </c>
+      <c r="B26" s="8">
+        <v>301.12</v>
+      </c>
+      <c r="C26" s="8">
+        <v>511.43</v>
+      </c>
+      <c r="D26" s="8">
+        <v>270.02999999999997</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
+        <v>486.07</v>
+      </c>
+      <c r="B27" s="8">
+        <v>315.95999999999998</v>
+      </c>
+      <c r="C27" s="8">
+        <v>508.05</v>
+      </c>
+      <c r="D27" s="8">
+        <v>306.48</v>
+      </c>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>587.49</v>
+      </c>
+      <c r="B28" s="8">
+        <v>160.36000000000001</v>
+      </c>
+      <c r="C28" s="8">
+        <v>210.35</v>
+      </c>
+      <c r="D28" s="8">
+        <v>119.83</v>
+      </c>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
+        <v>721.2</v>
+      </c>
+      <c r="B29" s="8">
+        <v>170.14</v>
+      </c>
+      <c r="C29" s="8">
+        <v>389.34</v>
+      </c>
+      <c r="D29" s="8">
+        <v>165.23</v>
+      </c>
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
+        <v>910.55</v>
+      </c>
+      <c r="B30" s="8">
+        <v>212.48</v>
+      </c>
+      <c r="C30" s="8">
+        <v>442.92</v>
+      </c>
+      <c r="D30" s="8">
+        <v>246.37</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>675.3</v>
+      </c>
+      <c r="B31" s="8">
+        <v>224.44</v>
+      </c>
+      <c r="C31" s="8">
+        <v>353</v>
+      </c>
+      <c r="D31" s="8">
+        <v>158.63999999999999</v>
+      </c>
+      <c r="E31" s="8"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
+        <v>675.96</v>
+      </c>
+      <c r="B32" s="8">
+        <v>199.38</v>
+      </c>
+      <c r="C32" s="8">
+        <v>422.24</v>
+      </c>
+      <c r="D32" s="8">
+        <v>240.62</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
+        <v>866.41</v>
+      </c>
+      <c r="B33" s="8">
+        <v>201.17</v>
+      </c>
+      <c r="C33" s="8">
+        <v>300.44</v>
+      </c>
+      <c r="D33" s="8">
+        <v>140.15</v>
+      </c>
+      <c r="E33" s="8"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <v>645.9</v>
+      </c>
+      <c r="B34" s="8">
+        <v>198.87</v>
+      </c>
+      <c r="C34" s="8">
+        <v>296.94</v>
+      </c>
+      <c r="D34" s="8">
+        <v>163.09</v>
+      </c>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
+        <v>497.04</v>
+      </c>
+      <c r="B35" s="8">
+        <v>113.23</v>
+      </c>
+      <c r="C35" s="8">
+        <v>124.49</v>
+      </c>
+      <c r="D35" s="8">
+        <v>102.87</v>
+      </c>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
+        <v>962.74</v>
+      </c>
+      <c r="B36" s="8">
+        <v>286.27</v>
+      </c>
+      <c r="C36" s="8">
+        <v>684.48</v>
+      </c>
+      <c r="D36" s="8">
+        <v>266.05</v>
+      </c>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>509.71</v>
+      </c>
+      <c r="B37" s="8">
+        <v>106.61</v>
+      </c>
+      <c r="C37" s="8">
+        <v>269.73</v>
+      </c>
+      <c r="D37" s="8">
+        <v>86.52</v>
+      </c>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
+        <v>725.27</v>
+      </c>
+      <c r="B38" s="8">
+        <v>289.36</v>
+      </c>
+      <c r="C38" s="8">
+        <v>340.3</v>
+      </c>
+      <c r="D38" s="8">
+        <v>191.42</v>
+      </c>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <v>603.09</v>
+      </c>
+      <c r="B39" s="8">
+        <v>166.61</v>
+      </c>
+      <c r="C39" s="8">
+        <v>314.94</v>
+      </c>
+      <c r="D39" s="8">
+        <v>154.47999999999999</v>
+      </c>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
+        <v>878.99</v>
+      </c>
+      <c r="B40" s="8">
+        <v>200.87</v>
+      </c>
+      <c r="C40" s="8">
+        <v>429.27</v>
+      </c>
+      <c r="D40" s="8">
+        <v>210.54</v>
+      </c>
+      <c r="E40" s="8"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
+        <v>686.1</v>
+      </c>
+      <c r="B41" s="8">
+        <v>270.12</v>
+      </c>
+      <c r="C41" s="8">
+        <v>335.77</v>
+      </c>
+      <c r="D41" s="8">
+        <v>160.08000000000001</v>
+      </c>
+      <c r="E41" s="8"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
+        <v>831.59</v>
+      </c>
+      <c r="B42" s="8">
+        <v>175.82</v>
+      </c>
+      <c r="C42" s="8">
+        <v>424.8</v>
+      </c>
+      <c r="D42" s="8">
+        <v>152.09</v>
+      </c>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
+        <v>555.29</v>
+      </c>
+      <c r="B43" s="8">
+        <v>192.96</v>
+      </c>
+      <c r="C43" s="8">
+        <v>311.19</v>
+      </c>
+      <c r="D43" s="8">
+        <v>147.69</v>
+      </c>
+      <c r="E43" s="8"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
+        <v>800.48</v>
+      </c>
+      <c r="B44" s="8">
+        <v>185.3</v>
+      </c>
+      <c r="C44" s="8">
+        <v>348.15</v>
+      </c>
+      <c r="D44" s="8">
+        <v>168.15</v>
+      </c>
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
+        <v>645.07000000000005</v>
+      </c>
+      <c r="B45" s="8">
+        <v>224.25</v>
+      </c>
+      <c r="C45" s="8">
+        <v>359.46</v>
+      </c>
+      <c r="D45" s="8">
+        <v>200.1</v>
+      </c>
+      <c r="E45" s="8"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
+        <v>682.65</v>
+      </c>
+      <c r="B46" s="8">
+        <v>256.39</v>
+      </c>
+      <c r="C46" s="8">
+        <v>488.8</v>
+      </c>
+      <c r="D46" s="8">
+        <v>274.48</v>
+      </c>
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
+        <v>317.38</v>
+      </c>
+      <c r="B47" s="8">
+        <v>92.76</v>
+      </c>
+      <c r="C47" s="8">
+        <v>165.01</v>
+      </c>
+      <c r="D47" s="8">
+        <v>84.16</v>
+      </c>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
+        <v>685.57</v>
+      </c>
+      <c r="B48" s="8">
+        <v>131.94999999999999</v>
+      </c>
+      <c r="C48" s="8">
+        <v>295.18</v>
+      </c>
+      <c r="D48" s="8">
+        <v>115.53</v>
+      </c>
+      <c r="E48" s="8"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
+        <v>590.65</v>
+      </c>
+      <c r="B49" s="8">
+        <v>208.72</v>
+      </c>
+      <c r="C49" s="8">
+        <v>454.23</v>
+      </c>
+      <c r="D49" s="8">
+        <v>127.9</v>
+      </c>
+      <c r="E49" s="8"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
+        <v>644.27</v>
+      </c>
+      <c r="B50" s="8">
+        <v>153.97</v>
+      </c>
+      <c r="C50" s="8">
+        <v>323.20999999999998</v>
+      </c>
+      <c r="D50" s="8">
+        <v>144.21</v>
+      </c>
+      <c r="E50" s="8"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
+        <v>1177.4100000000001</v>
+      </c>
+      <c r="B51" s="8">
+        <v>335.42</v>
+      </c>
+      <c r="C51" s="8">
+        <v>501.81</v>
+      </c>
+      <c r="D51" s="8">
+        <v>243.89</v>
+      </c>
+      <c r="E51" s="8"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
+        <v>812.25</v>
+      </c>
+      <c r="B52" s="8">
+        <v>212.06</v>
+      </c>
+      <c r="C52" s="8">
+        <v>404.22</v>
+      </c>
+      <c r="D52" s="8">
+        <v>175.82</v>
+      </c>
+      <c r="E52" s="8"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
+        <v>537.42999999999995</v>
+      </c>
+      <c r="B53" s="8">
+        <v>127.7</v>
+      </c>
+      <c r="C53" s="8">
+        <v>446.31</v>
+      </c>
+      <c r="D53" s="8">
+        <v>118.38</v>
+      </c>
+      <c r="E53" s="8"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
+        <v>620.86</v>
+      </c>
+      <c r="B54" s="8">
+        <v>123.19</v>
+      </c>
+      <c r="C54" s="8">
+        <v>306</v>
+      </c>
+      <c r="D54" s="8">
+        <v>124.66</v>
+      </c>
+      <c r="E54" s="8"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
+        <v>761.21</v>
+      </c>
+      <c r="B55" s="8">
+        <v>307.10000000000002</v>
+      </c>
+      <c r="C55" s="8">
+        <v>450.75</v>
+      </c>
+      <c r="D55" s="8">
+        <v>272.91000000000003</v>
+      </c>
+      <c r="E55" s="8"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
+        <v>1107.75</v>
+      </c>
+      <c r="B56" s="8">
+        <v>486.25</v>
+      </c>
+      <c r="C56" s="8">
+        <v>710.46</v>
+      </c>
+      <c r="D56" s="8">
+        <v>326.82</v>
+      </c>
+      <c r="E56" s="8"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
+        <v>594.34</v>
+      </c>
+      <c r="B57" s="8">
+        <v>264.75</v>
+      </c>
+      <c r="C57" s="8">
+        <v>341.4</v>
+      </c>
+      <c r="D57" s="8">
+        <v>181.06</v>
+      </c>
+      <c r="E57" s="8"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
+        <v>871.06</v>
+      </c>
+      <c r="B58" s="8">
+        <v>210.86</v>
+      </c>
+      <c r="C58" s="8">
+        <v>438.16</v>
+      </c>
+      <c r="D58" s="8">
+        <v>152.86000000000001</v>
+      </c>
+      <c r="E58" s="8"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
+        <v>711.97</v>
+      </c>
+      <c r="B59" s="8">
+        <v>225.37</v>
+      </c>
+      <c r="C59" s="8">
+        <v>387.66</v>
+      </c>
+      <c r="D59" s="8">
+        <v>202.41</v>
+      </c>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
+        <v>858.57</v>
+      </c>
+      <c r="B60" s="8">
+        <v>322.36</v>
+      </c>
+      <c r="C60" s="8">
+        <v>496.29</v>
+      </c>
+      <c r="D60" s="8">
+        <v>257.08999999999997</v>
+      </c>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="8">
+        <v>684.17</v>
+      </c>
+      <c r="B61" s="8">
+        <v>195.33</v>
+      </c>
+      <c r="C61" s="8">
+        <v>524.97</v>
+      </c>
+      <c r="D61" s="8">
+        <v>221.77</v>
+      </c>
+      <c r="E61" s="8"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
+        <v>987.31</v>
+      </c>
+      <c r="B62" s="8">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="C62" s="8">
+        <v>315</v>
+      </c>
+      <c r="D62" s="8">
+        <v>141.08000000000001</v>
+      </c>
+      <c r="E62" s="8"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
+        <v>795.5</v>
+      </c>
+      <c r="B63" s="8">
+        <v>385.51</v>
+      </c>
+      <c r="C63" s="8">
+        <v>657.28</v>
+      </c>
+      <c r="D63" s="8">
+        <v>444</v>
+      </c>
+      <c r="E63" s="8"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="8">
+        <v>1208.05</v>
+      </c>
+      <c r="B64" s="8">
+        <v>321.64</v>
+      </c>
+      <c r="C64" s="8">
+        <v>519.98</v>
+      </c>
+      <c r="D64" s="8">
+        <v>269.88</v>
+      </c>
+      <c r="E64" s="8"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="8">
+        <v>1209.51</v>
+      </c>
+      <c r="B65" s="8">
+        <v>274.39999999999998</v>
+      </c>
+      <c r="C65" s="8">
+        <v>633.46</v>
+      </c>
+      <c r="D65" s="8">
+        <v>312.41000000000003</v>
+      </c>
+      <c r="E65" s="8"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="8">
+        <v>747.91</v>
+      </c>
+      <c r="B66" s="8">
+        <v>235.95</v>
+      </c>
+      <c r="C66" s="8">
+        <v>452.27</v>
+      </c>
+      <c r="D66" s="8">
+        <v>206.6</v>
+      </c>
+      <c r="E66" s="8"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="8">
+        <v>805.22</v>
+      </c>
+      <c r="B67" s="8">
+        <v>155.79</v>
+      </c>
+      <c r="C67" s="8">
+        <v>400.49</v>
+      </c>
+      <c r="D67" s="8">
+        <v>153.07</v>
+      </c>
+      <c r="E67" s="8"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="8">
+        <v>567.01</v>
+      </c>
+      <c r="B68" s="8">
+        <v>101.3</v>
+      </c>
+      <c r="C68" s="8">
+        <v>233.36</v>
+      </c>
+      <c r="D68" s="8">
+        <v>86.07</v>
+      </c>
+      <c r="E68" s="8"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="8">
+        <v>925.21</v>
+      </c>
+      <c r="B69" s="8">
+        <v>253.42</v>
+      </c>
+      <c r="C69" s="8">
+        <v>422.59</v>
+      </c>
+      <c r="D69" s="8">
+        <v>195.75</v>
+      </c>
+      <c r="E69" s="8"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="8">
+        <v>905.04</v>
+      </c>
+      <c r="B70" s="8">
+        <v>284.35000000000002</v>
+      </c>
+      <c r="C70" s="8">
+        <v>446.36</v>
+      </c>
+      <c r="D70" s="8">
+        <v>161.91999999999999</v>
+      </c>
+      <c r="E70" s="8"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="8">
+        <v>941.53</v>
+      </c>
+      <c r="B71" s="8">
+        <v>200.87</v>
+      </c>
+      <c r="C71" s="8">
+        <v>324.95999999999998</v>
+      </c>
+      <c r="D71" s="8">
+        <v>161.71</v>
+      </c>
+      <c r="E71" s="8"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="8">
+        <v>898.45</v>
+      </c>
+      <c r="B72" s="8">
+        <v>248.52</v>
+      </c>
+      <c r="C72" s="8">
+        <v>493.44</v>
+      </c>
+      <c r="D72" s="8">
+        <v>272.73</v>
+      </c>
+      <c r="E72" s="8"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="8">
+        <v>1124.8499999999999</v>
+      </c>
+      <c r="B73" s="8">
+        <v>311.60000000000002</v>
+      </c>
+      <c r="C73" s="8">
+        <v>618.80999999999995</v>
+      </c>
+      <c r="D73" s="8">
+        <v>293.69</v>
+      </c>
+      <c r="E73" s="8"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="8">
+        <v>852.63</v>
+      </c>
+      <c r="B74" s="8">
+        <v>296.56</v>
+      </c>
+      <c r="C74" s="8">
+        <v>421.98</v>
+      </c>
+      <c r="D74" s="8">
+        <v>234.79</v>
+      </c>
+      <c r="E74" s="8"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="8">
+        <v>954.63</v>
+      </c>
+      <c r="B75" s="8">
+        <v>373.8</v>
+      </c>
+      <c r="C75" s="8">
+        <v>411.35</v>
+      </c>
+      <c r="D75" s="8">
+        <v>252.69</v>
+      </c>
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="8">
+        <v>848.71</v>
+      </c>
+      <c r="B76" s="8">
+        <v>340.67</v>
+      </c>
+      <c r="C76" s="8">
+        <v>602.09</v>
+      </c>
+      <c r="D76" s="8">
+        <v>147.16999999999999</v>
+      </c>
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="8">
+        <v>665.44</v>
+      </c>
+      <c r="B77" s="8">
+        <v>214.68</v>
+      </c>
+      <c r="C77" s="8">
+        <v>427.7</v>
+      </c>
+      <c r="D77" s="8">
+        <v>216.48</v>
+      </c>
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="8">
+        <v>580.19000000000005</v>
+      </c>
+      <c r="B78" s="8">
+        <v>279.64999999999998</v>
+      </c>
+      <c r="C78" s="8">
+        <v>417.63</v>
+      </c>
+      <c r="D78" s="8">
+        <v>230.2</v>
+      </c>
+      <c r="E78" s="8"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="8">
+        <v>672.94</v>
+      </c>
+      <c r="B79" s="8">
+        <v>149.11000000000001</v>
+      </c>
+      <c r="C79" s="8">
+        <v>395.56</v>
+      </c>
+      <c r="D79" s="8">
+        <v>151.77000000000001</v>
+      </c>
+      <c r="E79" s="8"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="8">
+        <v>681.99</v>
+      </c>
+      <c r="B80" s="8">
+        <v>150.74</v>
+      </c>
+      <c r="C80" s="8">
+        <v>307.19</v>
+      </c>
+      <c r="D80" s="8">
+        <v>155.66</v>
+      </c>
+      <c r="E80" s="8"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="8">
+        <v>912.3</v>
+      </c>
+      <c r="B81" s="8">
+        <v>232.8</v>
+      </c>
+      <c r="C81" s="8">
+        <v>374.97</v>
+      </c>
+      <c r="D81" s="8">
+        <v>182.58</v>
+      </c>
+      <c r="E81" s="8"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="8">
+        <v>868.92</v>
+      </c>
+      <c r="B82" s="8">
+        <v>208.94</v>
+      </c>
+      <c r="C82" s="8">
+        <v>380.89</v>
+      </c>
+      <c r="D82" s="8">
+        <v>176.01</v>
+      </c>
+      <c r="E82" s="8"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="8">
+        <v>735.63</v>
+      </c>
+      <c r="B83" s="8">
+        <v>255.68</v>
+      </c>
+      <c r="C83" s="8">
+        <v>502.39</v>
+      </c>
+      <c r="D83" s="8">
+        <v>255.49</v>
+      </c>
+      <c r="E83" s="8"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="8">
+        <v>740.97</v>
+      </c>
+      <c r="B84" s="8">
+        <v>224.92</v>
+      </c>
+      <c r="C84" s="8">
+        <v>445.63</v>
+      </c>
+      <c r="D84" s="8">
+        <v>232.31</v>
+      </c>
+      <c r="E84" s="8"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="8">
+        <v>785.83</v>
+      </c>
+      <c r="B85" s="8">
+        <v>214.9</v>
+      </c>
+      <c r="C85" s="8">
+        <v>312.2</v>
+      </c>
+      <c r="D85" s="8">
+        <v>177.05</v>
+      </c>
+      <c r="E85" s="8"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="8">
+        <v>446.61</v>
+      </c>
+      <c r="B86" s="8">
+        <v>117.34</v>
+      </c>
+      <c r="C86" s="8">
+        <v>209.3</v>
+      </c>
+      <c r="D86" s="8">
+        <v>74.45</v>
+      </c>
+      <c r="E86" s="8"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="8">
+        <v>1073.42</v>
+      </c>
+      <c r="B87" s="8">
+        <v>319.81</v>
+      </c>
+      <c r="C87" s="8">
+        <v>657.45</v>
+      </c>
+      <c r="D87" s="8">
+        <v>428.33</v>
+      </c>
+      <c r="E87" s="8"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="8">
+        <v>526.16</v>
+      </c>
+      <c r="B88" s="8">
+        <v>139.41</v>
+      </c>
+      <c r="C88" s="8">
+        <v>330.89</v>
+      </c>
+      <c r="D88" s="8">
+        <v>110.02</v>
+      </c>
+      <c r="E88" s="8"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="8">
+        <v>680.45</v>
+      </c>
+      <c r="B89" s="8">
+        <v>250.2</v>
+      </c>
+      <c r="C89" s="8">
+        <v>486.56</v>
+      </c>
+      <c r="D89" s="8">
+        <v>251.13</v>
+      </c>
+      <c r="E89" s="8"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="8">
+        <v>625.46</v>
+      </c>
+      <c r="B90" s="8">
+        <v>182.35</v>
+      </c>
+      <c r="C90" s="8">
+        <v>457.46</v>
+      </c>
+      <c r="D90" s="8">
+        <v>153.62</v>
+      </c>
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="8">
+        <v>841.51</v>
+      </c>
+      <c r="B91" s="8">
+        <v>232.18</v>
+      </c>
+      <c r="C91" s="8">
+        <v>458.62</v>
+      </c>
+      <c r="D91" s="8">
+        <v>179.56</v>
+      </c>
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="8">
+        <v>721.66</v>
+      </c>
+      <c r="B92" s="8">
+        <v>245.77</v>
+      </c>
+      <c r="C92" s="8">
+        <v>469.53</v>
+      </c>
+      <c r="D92" s="8">
+        <v>225.18</v>
+      </c>
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="8">
+        <v>943.2</v>
+      </c>
+      <c r="B93" s="8">
+        <v>209.05</v>
+      </c>
+      <c r="C93" s="8">
+        <v>497.75</v>
+      </c>
+      <c r="D93" s="8">
+        <v>146.94</v>
+      </c>
+      <c r="E93" s="8"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="8">
+        <v>672.18</v>
+      </c>
+      <c r="B94" s="8">
+        <v>217.05</v>
+      </c>
+      <c r="C94" s="8">
+        <v>310.52999999999997</v>
+      </c>
+      <c r="D94" s="8">
+        <v>141.51</v>
+      </c>
+      <c r="E94" s="8"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="8">
+        <v>730.27</v>
+      </c>
+      <c r="B95" s="8">
+        <v>196</v>
+      </c>
+      <c r="C95" s="8">
+        <v>383.38</v>
+      </c>
+      <c r="D95" s="8">
+        <v>186.85</v>
+      </c>
+      <c r="E95" s="8"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="8">
+        <v>462.1</v>
+      </c>
+      <c r="B96" s="8">
+        <v>184.96</v>
+      </c>
+      <c r="C96" s="8">
+        <v>333.4</v>
+      </c>
+      <c r="D96" s="8">
+        <v>133.19</v>
+      </c>
+      <c r="E96" s="8"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="8">
+        <v>775.16</v>
+      </c>
+      <c r="B97" s="8">
+        <v>246.57</v>
+      </c>
+      <c r="C97" s="8">
+        <v>581.92999999999995</v>
+      </c>
+      <c r="D97" s="8">
+        <v>290.55</v>
+      </c>
+      <c r="E97" s="8"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="8">
+        <v>304.60000000000002</v>
+      </c>
+      <c r="B98" s="8">
+        <v>93.65</v>
+      </c>
+      <c r="C98" s="8">
+        <v>222.28</v>
+      </c>
+      <c r="D98" s="8">
+        <v>86.16</v>
+      </c>
+      <c r="E98" s="8"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="8">
+        <v>738.43</v>
+      </c>
+      <c r="B99" s="8">
+        <v>134.82</v>
+      </c>
+      <c r="C99" s="8">
+        <v>319.61</v>
+      </c>
+      <c r="D99" s="8">
+        <v>109.79</v>
+      </c>
+      <c r="E99" s="8"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="8">
+        <v>730.54</v>
+      </c>
+      <c r="B100" s="8">
+        <v>197.84</v>
+      </c>
+      <c r="C100" s="8">
+        <v>342.68</v>
+      </c>
+      <c r="D100" s="8">
+        <v>180.52</v>
+      </c>
+      <c r="E100" s="8"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="8">
+        <v>699.5</v>
+      </c>
+      <c r="B101" s="8">
+        <v>169.86</v>
+      </c>
+      <c r="C101" s="8">
+        <v>230.72</v>
+      </c>
+      <c r="D101" s="8">
+        <v>130.43</v>
+      </c>
+      <c r="E101" s="8"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="8">
+        <v>788.51</v>
+      </c>
+      <c r="B102" s="8">
+        <v>288.24</v>
+      </c>
+      <c r="C102" s="8">
+        <v>569.13</v>
+      </c>
+      <c r="D102" s="8">
+        <v>284.04000000000002</v>
+      </c>
+      <c r="E102" s="8"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="8">
+        <v>610.21</v>
+      </c>
+      <c r="B103" s="8">
+        <v>264.24</v>
+      </c>
+      <c r="C103" s="8">
+        <v>398.04</v>
+      </c>
+      <c r="D103" s="8">
+        <v>208.97</v>
+      </c>
+      <c r="E103" s="8"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00DAD772-0949-9147-84B3-58B8A6F312A5}">
+  <dimension ref="A1:G111"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="7" width="31.1640625" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="17">
+        <v>0</v>
+      </c>
+      <c r="C2" s="17">
+        <v>0.17454608974191013</v>
+      </c>
+      <c r="D2" s="17">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17">
+        <v>0</v>
+      </c>
+      <c r="F2" s="17">
+        <v>0.3584088006026464</v>
+      </c>
+      <c r="G2" s="24">
+        <v>0.28629478000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="25"/>
+      <c r="B3" s="18">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0.18276846748681896</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0.35029646397188052</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0.28239029999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+      <c r="B4" s="18">
+        <v>0</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.15250239133777552</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0.36490797296258332</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0.31411665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="25"/>
+      <c r="B5" s="18">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.13599371734420798</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0</v>
+      </c>
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0.38758683840958325</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0.31202439999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="25"/>
+      <c r="B6" s="18">
+        <v>0</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.17985979026128265</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0.35428385617577196</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0.28918841000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="25"/>
+      <c r="B7" s="18">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.17940392963671128</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0.33987155627788401</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0.28323970999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="18">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0.15979882357492906</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0.38196482447768892</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0.29459622000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="25"/>
+      <c r="B9" s="18">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0.16775782573693337</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0.36787793658657425</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0.28336014999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0.18642404152475767</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0.33787327547812418</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0.29122851999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="18">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.15915695278179667</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0.3879195763514402</v>
+      </c>
+      <c r="G11" s="26">
+        <v>0.29469985999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="18">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.12788611122211122</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0.37689343123543123</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0.29910407999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="18">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.14259056621465666</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0.34816228188113102</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0.30123995999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="18">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.1498107289719626</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0.37454150480834347</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0.29205502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="18">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.13931866402471788</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0.37885535666308434</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0.29900503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="25"/>
+      <c r="B16" s="18">
+        <v>0</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0.12918996100013588</v>
+      </c>
+      <c r="D16" s="21">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0.36208814906916703</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0.32700406999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="25"/>
+      <c r="B17" s="18">
+        <v>0</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0.11512984988576803</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0.39132807310845313</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0.31412308999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="25"/>
+      <c r="B18" s="18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.12324893707267663</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0.41045703912382886</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0.29484215000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="18">
+        <v>4.2807503443095035E-3</v>
+      </c>
+      <c r="C19" s="18">
+        <v>0.14409102040816327</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0.4055437971704019</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0.28925792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="18">
+        <v>0</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.15814277546804392</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0.36543920723047124</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0.29453894000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="25"/>
+      <c r="B21" s="18">
+        <v>4.4641282019552037E-4</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0.16185532495978219</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0.40197169310728875</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0.29952147000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="21">
+        <v>0</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0.19090504567449545</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0.35652483901805737</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0.26742441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="25"/>
+      <c r="B23" s="21">
+        <v>0</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0.19316868555105929</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0.35831395298738394</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0.26263340000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="25"/>
+      <c r="B24" s="21">
+        <v>0</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0.16438339636403224</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0.35407189146527324</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0.29701708999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="25"/>
+      <c r="B25" s="21">
+        <v>0</v>
+      </c>
+      <c r="C25" s="19">
+        <v>0.184128795981988</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0</v>
+      </c>
+      <c r="E25" s="21">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0.3627949983835585</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0.26730927999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="21">
+        <v>0</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0.14040990947006871</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0.30894363898429833</v>
+      </c>
+      <c r="G26" s="26">
+        <v>0.28854769000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="20">
+        <v>0</v>
+      </c>
+      <c r="C27" s="20">
+        <v>0.17719446730482347</v>
+      </c>
+      <c r="D27" s="20">
+        <v>0</v>
+      </c>
+      <c r="E27" s="20">
+        <v>0</v>
+      </c>
+      <c r="F27" s="20">
+        <v>0.3900645601690701</v>
+      </c>
+      <c r="G27" s="28">
+        <v>0.26341289000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="23">
+        <v>5.144141715376357E-4</v>
+      </c>
+      <c r="C30" s="23">
+        <v>0.19619125193844686</v>
+      </c>
+      <c r="D30" s="23">
+        <v>0</v>
+      </c>
+      <c r="E30" s="23">
+        <v>0</v>
+      </c>
+      <c r="F30" s="23">
+        <v>4.1043441369438147E-2</v>
+      </c>
+      <c r="G30" s="24">
+        <v>0.61798542999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="25"/>
+      <c r="B31" s="21">
+        <v>0</v>
+      </c>
+      <c r="C31" s="21">
+        <v>0.20248780048929663</v>
+      </c>
+      <c r="D31" s="21">
+        <v>0</v>
+      </c>
+      <c r="E31" s="21">
+        <v>0</v>
+      </c>
+      <c r="F31" s="21">
+        <v>2.1010653088685015E-2</v>
+      </c>
+      <c r="G31" s="26">
+        <v>0.64060362999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="25"/>
+      <c r="B32" s="21">
+        <v>0</v>
+      </c>
+      <c r="C32" s="21">
+        <v>0.18753843731707318</v>
+      </c>
+      <c r="D32" s="21">
+        <v>0</v>
+      </c>
+      <c r="E32" s="21">
+        <v>0</v>
+      </c>
+      <c r="F32" s="21">
+        <v>2.3764803902439024E-2</v>
+      </c>
+      <c r="G32" s="26">
+        <v>0.64773544999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="25"/>
+      <c r="B33" s="21">
+        <v>0</v>
+      </c>
+      <c r="C33" s="21">
+        <v>0.1814288283164783</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0</v>
+      </c>
+      <c r="F33" s="21">
+        <v>5.0298127543129088E-2</v>
+      </c>
+      <c r="G33" s="26">
+        <v>0.62938209000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="25"/>
+      <c r="B34" s="21">
+        <v>0</v>
+      </c>
+      <c r="C34" s="21">
+        <v>0.1881472291879614</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0</v>
+      </c>
+      <c r="E34" s="21">
+        <v>0</v>
+      </c>
+      <c r="F34" s="21">
+        <v>2.4161088245315161E-2</v>
+      </c>
+      <c r="G34" s="26">
+        <v>0.62871946000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="25"/>
+      <c r="B35" s="21">
+        <v>0</v>
+      </c>
+      <c r="C35" s="21">
+        <v>0.17459515313631585</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0</v>
+      </c>
+      <c r="E35" s="21">
+        <v>0</v>
+      </c>
+      <c r="F35" s="21">
+        <v>2.9297251138885642E-2</v>
+      </c>
+      <c r="G35" s="26">
+        <v>0.64964040999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="25"/>
+      <c r="B36" s="21">
+        <v>0</v>
+      </c>
+      <c r="C36" s="21">
+        <v>0.19345343249808233</v>
+      </c>
+      <c r="D36" s="21">
+        <v>0</v>
+      </c>
+      <c r="E36" s="21">
+        <v>0</v>
+      </c>
+      <c r="F36" s="21">
+        <v>2.3217722705190489E-2</v>
+      </c>
+      <c r="G36" s="26">
+        <v>0.64329778999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="25"/>
+      <c r="B37" s="21">
+        <v>0</v>
+      </c>
+      <c r="C37" s="21">
+        <v>0.18167575178907719</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0</v>
+      </c>
+      <c r="E37" s="21">
+        <v>0</v>
+      </c>
+      <c r="F37" s="21">
+        <v>1.9559517765222852E-2</v>
+      </c>
+      <c r="G37" s="26">
+        <v>0.65622011000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="25"/>
+      <c r="B38" s="21">
+        <v>0</v>
+      </c>
+      <c r="C38" s="21">
+        <v>0.18713518092970807</v>
+      </c>
+      <c r="D38" s="21">
+        <v>0</v>
+      </c>
+      <c r="E38" s="21">
+        <v>0</v>
+      </c>
+      <c r="F38" s="21">
+        <v>2.9683725222403208E-2</v>
+      </c>
+      <c r="G38" s="26">
+        <v>0.62884034</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="25"/>
+      <c r="B39" s="21">
+        <v>6.478477500582886E-4</v>
+      </c>
+      <c r="C39" s="21">
+        <v>0.18727376148286315</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0</v>
+      </c>
+      <c r="E39" s="21">
+        <v>0</v>
+      </c>
+      <c r="F39" s="21">
+        <v>4.4482187339706221E-2</v>
+      </c>
+      <c r="G39" s="26">
+        <v>0.62940235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="25"/>
+      <c r="B40" s="21">
+        <v>3.8428283947065595E-3</v>
+      </c>
+      <c r="C40" s="21">
+        <v>0.16259057997698503</v>
+      </c>
+      <c r="D40" s="21">
+        <v>0</v>
+      </c>
+      <c r="E40" s="21">
+        <v>0</v>
+      </c>
+      <c r="F40" s="21">
+        <v>5.354625230149597E-2</v>
+      </c>
+      <c r="G40" s="26">
+        <v>0.62497557000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="25"/>
+      <c r="B41" s="21">
+        <v>1.8901967445054946E-2</v>
+      </c>
+      <c r="C41" s="21">
+        <v>0.14071973859890111</v>
+      </c>
+      <c r="D41" s="21">
+        <v>0</v>
+      </c>
+      <c r="E41" s="21">
+        <v>0</v>
+      </c>
+      <c r="F41" s="21">
+        <v>5.1860154395604395E-2</v>
+      </c>
+      <c r="G41" s="26">
+        <v>0.66845330000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="25"/>
+      <c r="B42" s="21">
+        <v>6.2530406394923112E-3</v>
+      </c>
+      <c r="C42" s="21">
+        <v>0.15166066878203563</v>
+      </c>
+      <c r="D42" s="21">
+        <v>0</v>
+      </c>
+      <c r="E42" s="21">
+        <v>0</v>
+      </c>
+      <c r="F42" s="21">
+        <v>6.6136949353185273E-2</v>
+      </c>
+      <c r="G42" s="26">
+        <v>0.63747991999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="25"/>
+      <c r="B43" s="21">
+        <v>2.1187868134617789E-3</v>
+      </c>
+      <c r="C43" s="21">
+        <v>0.18108010646815964</v>
+      </c>
+      <c r="D43" s="21">
+        <v>0</v>
+      </c>
+      <c r="E43" s="21">
+        <v>0</v>
+      </c>
+      <c r="F43" s="21">
+        <v>6.1387695733767039E-2</v>
+      </c>
+      <c r="G43" s="26">
+        <v>0.63472360000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="25"/>
+      <c r="B44" s="21">
+        <v>1.2243342541436464E-2</v>
+      </c>
+      <c r="C44" s="21">
+        <v>0.14427035889051754</v>
+      </c>
+      <c r="D44" s="21">
+        <v>0</v>
+      </c>
+      <c r="E44" s="21">
+        <v>0</v>
+      </c>
+      <c r="F44" s="21">
+        <v>6.7195087608524065E-2</v>
+      </c>
+      <c r="G44" s="26">
+        <v>0.62465020000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="25"/>
+      <c r="B45" s="21">
+        <v>1.7056994163192375E-2</v>
+      </c>
+      <c r="C45" s="21">
+        <v>0.1446038524121501</v>
+      </c>
+      <c r="D45" s="21">
+        <v>0</v>
+      </c>
+      <c r="E45" s="21">
+        <v>0</v>
+      </c>
+      <c r="F45" s="21">
+        <v>5.7750559737939251E-2</v>
+      </c>
+      <c r="G45" s="26">
+        <v>0.61805913999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="25"/>
+      <c r="B46" s="21">
+        <v>1.6429582487464841E-2</v>
+      </c>
+      <c r="C46" s="21">
+        <v>0.18380712302800539</v>
+      </c>
+      <c r="D46" s="21">
+        <v>0</v>
+      </c>
+      <c r="E46" s="21">
+        <v>0</v>
+      </c>
+      <c r="F46" s="21">
+        <v>4.9057027760792467E-2</v>
+      </c>
+      <c r="G46" s="26">
+        <v>0.61678233000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="25"/>
+      <c r="B47" s="21">
+        <v>9.6893411264612119E-3</v>
+      </c>
+      <c r="C47" s="21">
+        <v>0.14328236437300743</v>
+      </c>
+      <c r="D47" s="21">
+        <v>0</v>
+      </c>
+      <c r="E47" s="21">
+        <v>0</v>
+      </c>
+      <c r="F47" s="21">
+        <v>2.1508229277364507E-3</v>
+      </c>
+      <c r="G47" s="26">
+        <v>0.70582913999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="25"/>
+      <c r="B48" s="21">
+        <v>2.7343205875241777E-2</v>
+      </c>
+      <c r="C48" s="21">
+        <v>0.13383318604932301</v>
+      </c>
+      <c r="D48" s="21">
+        <v>0</v>
+      </c>
+      <c r="E48" s="21">
+        <v>0</v>
+      </c>
+      <c r="F48" s="21">
+        <v>4.7244043278529983E-2</v>
+      </c>
+      <c r="G48" s="26">
+        <v>0.65351075999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="25"/>
+      <c r="B49" s="21">
+        <v>1.8780532361308677E-2</v>
+      </c>
+      <c r="C49" s="21">
+        <v>0.20170624371740159</v>
+      </c>
+      <c r="D49" s="21">
+        <v>0</v>
+      </c>
+      <c r="E49" s="21">
+        <v>0</v>
+      </c>
+      <c r="F49" s="21">
+        <v>3.862141737790422E-2</v>
+      </c>
+      <c r="G49" s="26">
+        <v>0.59940802000000004</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="25"/>
+      <c r="B50" s="21">
+        <v>7.0963592664930559E-3</v>
+      </c>
+      <c r="C50" s="21">
+        <v>0.17059290407986111</v>
+      </c>
+      <c r="D50" s="21">
+        <v>0</v>
+      </c>
+      <c r="E50" s="21">
+        <v>0</v>
+      </c>
+      <c r="F50" s="21">
+        <v>3.5691619791666664E-2</v>
+      </c>
+      <c r="G50" s="26">
+        <v>0.65629864999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="25"/>
+      <c r="B51" s="21">
+        <v>1.0602969804225197E-3</v>
+      </c>
+      <c r="C51" s="21">
+        <v>0.17554255060280943</v>
+      </c>
+      <c r="D51" s="21">
+        <v>0</v>
+      </c>
+      <c r="E51" s="21">
+        <v>0</v>
+      </c>
+      <c r="F51" s="21">
+        <v>3.4798338568742399E-2</v>
+      </c>
+      <c r="G51" s="26">
+        <v>0.66622305000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="25"/>
+      <c r="B52" s="19">
+        <v>3.0896533793680686E-3</v>
+      </c>
+      <c r="C52" s="19">
+        <v>0.17241859478970495</v>
+      </c>
+      <c r="D52" s="21">
+        <v>0</v>
+      </c>
+      <c r="E52" s="21">
+        <v>0</v>
+      </c>
+      <c r="F52" s="21">
+        <v>2.5900867127014018E-2</v>
+      </c>
+      <c r="G52" s="26">
+        <v>0.69813309999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="25"/>
+      <c r="B53" s="19">
+        <v>1.873975529508534E-3</v>
+      </c>
+      <c r="C53" s="19">
+        <v>0.15400846730413326</v>
+      </c>
+      <c r="D53" s="21">
+        <v>0</v>
+      </c>
+      <c r="E53" s="21">
+        <v>0</v>
+      </c>
+      <c r="F53" s="21">
+        <v>3.2018216224552747E-2</v>
+      </c>
+      <c r="G53" s="26">
+        <v>0.66935619999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="25"/>
+      <c r="B54" s="21">
+        <v>5.7553483120695499E-4</v>
+      </c>
+      <c r="C54" s="21">
+        <v>0.21601621485830416</v>
+      </c>
+      <c r="D54" s="21">
+        <v>0</v>
+      </c>
+      <c r="E54" s="21">
+        <v>0</v>
+      </c>
+      <c r="F54" s="21">
+        <v>2.4400945241052276E-2</v>
+      </c>
+      <c r="G54" s="26">
+        <v>0.61509734999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="27"/>
+      <c r="B55" s="20">
+        <v>4.9080671496539796E-3</v>
+      </c>
+      <c r="C55" s="20">
+        <v>0.1768547374567474</v>
+      </c>
+      <c r="D55" s="20">
+        <v>0</v>
+      </c>
+      <c r="E55" s="20">
+        <v>0</v>
+      </c>
+      <c r="F55" s="20">
+        <v>3.9103392517301036E-2</v>
+      </c>
+      <c r="G55" s="28">
+        <v>0.65448287999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="23">
+        <v>9.8819924674731791E-3</v>
+      </c>
+      <c r="C58" s="23">
+        <v>9.7609049075553525E-2</v>
+      </c>
+      <c r="D58" s="23">
+        <v>7.3820388039260443E-2</v>
+      </c>
+      <c r="E58" s="23">
+        <v>0.21106009974891579</v>
+      </c>
+      <c r="F58" s="23">
+        <v>0</v>
+      </c>
+      <c r="G58" s="24">
+        <v>0.47349432000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="25"/>
+      <c r="B59" s="21">
+        <v>1.6138171270718236E-2</v>
+      </c>
+      <c r="C59" s="21">
+        <v>9.2689249559186546E-2</v>
+      </c>
+      <c r="D59" s="21">
+        <v>7.1903130833431292E-2</v>
+      </c>
+      <c r="E59" s="21">
+        <v>0.19476914317620783</v>
+      </c>
+      <c r="F59" s="21">
+        <v>0</v>
+      </c>
+      <c r="G59" s="26">
+        <v>0.48469342999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="25"/>
+      <c r="B60" s="21">
+        <v>2.6688592788849212E-2</v>
+      </c>
+      <c r="C60" s="21">
+        <v>9.8984462504319776E-2</v>
+      </c>
+      <c r="D60" s="21">
+        <v>7.7354787927658097E-2</v>
+      </c>
+      <c r="E60" s="21">
+        <v>0.17770104861191108</v>
+      </c>
+      <c r="F60" s="21">
+        <v>0</v>
+      </c>
+      <c r="G60" s="26">
+        <v>0.47653362999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="25"/>
+      <c r="B61" s="21">
+        <v>7.080322010714693E-3</v>
+      </c>
+      <c r="C61" s="21">
+        <v>0.10436344522968198</v>
+      </c>
+      <c r="D61" s="21">
+        <v>7.7142094038527301E-2</v>
+      </c>
+      <c r="E61" s="21">
+        <v>0.21332518306166648</v>
+      </c>
+      <c r="F61" s="21">
+        <v>0</v>
+      </c>
+      <c r="G61" s="26">
+        <v>0.46633961000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="25"/>
+      <c r="B62" s="21">
+        <v>1.0798668798941214E-3</v>
+      </c>
+      <c r="C62" s="21">
+        <v>0.1008349854417117</v>
+      </c>
+      <c r="D62" s="21">
+        <v>7.182569537884638E-2</v>
+      </c>
+      <c r="E62" s="21">
+        <v>0.20207820028675416</v>
+      </c>
+      <c r="F62" s="21">
+        <v>0</v>
+      </c>
+      <c r="G62" s="26">
+        <v>0.46559958000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="25"/>
+      <c r="B63" s="21">
+        <v>8.9141028845030942E-3</v>
+      </c>
+      <c r="C63" s="21">
+        <v>9.9772259021371018E-2</v>
+      </c>
+      <c r="D63" s="21">
+        <v>7.6408932850636463E-2</v>
+      </c>
+      <c r="E63" s="21">
+        <v>0.21068346922807427</v>
+      </c>
+      <c r="F63" s="21">
+        <v>0</v>
+      </c>
+      <c r="G63" s="26">
+        <v>0.46406586</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="25"/>
+      <c r="B64" s="21">
+        <v>1.7992001738525731E-2</v>
+      </c>
+      <c r="C64" s="21">
+        <v>9.8987301692165047E-2</v>
+      </c>
+      <c r="D64" s="21">
+        <v>6.6067511358368108E-2</v>
+      </c>
+      <c r="E64" s="21">
+        <v>0.19580835048678721</v>
+      </c>
+      <c r="F64" s="21">
+        <v>0</v>
+      </c>
+      <c r="G64" s="26">
+        <v>0.47478650999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="25"/>
+      <c r="B65" s="21">
+        <v>1.5409886157826649E-2</v>
+      </c>
+      <c r="C65" s="21">
+        <v>9.0034112548512291E-2</v>
+      </c>
+      <c r="D65" s="21">
+        <v>7.2977288839233212E-2</v>
+      </c>
+      <c r="E65" s="21">
+        <v>0.1936796175467482</v>
+      </c>
+      <c r="F65" s="21">
+        <v>0</v>
+      </c>
+      <c r="G65" s="26">
+        <v>0.48726554999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="25"/>
+      <c r="B66" s="21">
+        <v>1.0133774598994495E-2</v>
+      </c>
+      <c r="C66" s="21">
+        <v>0.10910114543931052</v>
+      </c>
+      <c r="D66" s="21">
+        <v>7.1661741082116343E-2</v>
+      </c>
+      <c r="E66" s="21">
+        <v>0.20312443009336845</v>
+      </c>
+      <c r="F66" s="21">
+        <v>0</v>
+      </c>
+      <c r="G66" s="26">
+        <v>0.46017329000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="25"/>
+      <c r="B67" s="21">
+        <v>1.0397161305866763E-2</v>
+      </c>
+      <c r="C67" s="21">
+        <v>0.10715112480424045</v>
+      </c>
+      <c r="D67" s="21">
+        <v>7.2897470304782552E-2</v>
+      </c>
+      <c r="E67" s="21">
+        <v>0.20780821069750632</v>
+      </c>
+      <c r="F67" s="21">
+        <v>0</v>
+      </c>
+      <c r="G67" s="26">
+        <v>0.46024642999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="25"/>
+      <c r="B68" s="21">
+        <v>0.10157525013827434</v>
+      </c>
+      <c r="C68" s="21">
+        <v>0.10678470243362832</v>
+      </c>
+      <c r="D68" s="21">
+        <v>6.4277701603982301E-2</v>
+      </c>
+      <c r="E68" s="21">
+        <v>0.11048116095132744</v>
+      </c>
+      <c r="F68" s="21">
+        <v>0</v>
+      </c>
+      <c r="G68" s="26">
+        <v>0.45125334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="25"/>
+      <c r="B69" s="21">
+        <v>7.4238520096577193E-2</v>
+      </c>
+      <c r="C69" s="21">
+        <v>0.10155628461866213</v>
+      </c>
+      <c r="D69" s="21">
+        <v>3.8197579605169722E-2</v>
+      </c>
+      <c r="E69" s="21">
+        <v>0.1568947136770345</v>
+      </c>
+      <c r="F69" s="21">
+        <v>0</v>
+      </c>
+      <c r="G69" s="26">
+        <v>0.47574402999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="25"/>
+      <c r="B70" s="21">
+        <v>6.9131466522952073E-2</v>
+      </c>
+      <c r="C70" s="21">
+        <v>0.11823207887395383</v>
+      </c>
+      <c r="D70" s="21">
+        <v>6.7668230788739542E-2</v>
+      </c>
+      <c r="E70" s="21">
+        <v>0.14803203335024093</v>
+      </c>
+      <c r="F70" s="21">
+        <v>0</v>
+      </c>
+      <c r="G70" s="26">
+        <v>0.45125132000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="25"/>
+      <c r="B71" s="21">
+        <v>6.1545856324900138E-2</v>
+      </c>
+      <c r="C71" s="21">
+        <v>0.10695925938748337</v>
+      </c>
+      <c r="D71" s="21">
+        <v>4.1236765645805591E-2</v>
+      </c>
+      <c r="E71" s="21">
+        <v>0.16855314327563251</v>
+      </c>
+      <c r="F71" s="21">
+        <v>0</v>
+      </c>
+      <c r="G71" s="26">
+        <v>0.47036843</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="25"/>
+      <c r="B72" s="21">
+        <v>4.5730036157647348E-2</v>
+      </c>
+      <c r="C72" s="21">
+        <v>0.14442549596239607</v>
+      </c>
+      <c r="D72" s="21">
+        <v>0</v>
+      </c>
+      <c r="E72" s="21">
+        <v>0.20484380486922985</v>
+      </c>
+      <c r="F72" s="21">
+        <v>0</v>
+      </c>
+      <c r="G72" s="26">
+        <v>0.45704692000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="25"/>
+      <c r="B73" s="21">
+        <v>3.5651481687161181E-2</v>
+      </c>
+      <c r="C73" s="21">
+        <v>0.13895104046013487</v>
+      </c>
+      <c r="D73" s="21">
+        <v>0</v>
+      </c>
+      <c r="E73" s="21">
+        <v>0.18073324606637578</v>
+      </c>
+      <c r="F73" s="21">
+        <v>0</v>
+      </c>
+      <c r="G73" s="26">
+        <v>0.48701896</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="25"/>
+      <c r="B74" s="21">
+        <v>2.1010140162066347E-2</v>
+      </c>
+      <c r="C74" s="21">
+        <v>0.10556129969612561</v>
+      </c>
+      <c r="D74" s="21">
+        <v>3.1272028868067868E-2</v>
+      </c>
+      <c r="E74" s="21">
+        <v>0.19999356723221068</v>
+      </c>
+      <c r="F74" s="21">
+        <v>0</v>
+      </c>
+      <c r="G74" s="26">
+        <v>0.49832592999999997</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="25"/>
+      <c r="B75" s="21">
+        <v>1.6551066488685481E-2</v>
+      </c>
+      <c r="C75" s="21">
+        <v>0.14412548182049326</v>
+      </c>
+      <c r="D75" s="21">
+        <v>1.7641319603356215E-2</v>
+      </c>
+      <c r="E75" s="21">
+        <v>0.20377386905669972</v>
+      </c>
+      <c r="F75" s="21">
+        <v>0</v>
+      </c>
+      <c r="G75" s="26">
+        <v>0.46562977</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="25"/>
+      <c r="B76" s="21">
+        <v>6.1046708802456502E-2</v>
+      </c>
+      <c r="C76" s="21">
+        <v>0.12409623298362334</v>
+      </c>
+      <c r="D76" s="21">
+        <v>7.344443270214944E-2</v>
+      </c>
+      <c r="E76" s="21">
+        <v>0.15914292272262026</v>
+      </c>
+      <c r="F76" s="21">
+        <v>0</v>
+      </c>
+      <c r="G76" s="26">
+        <v>0.43476740000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="25"/>
+      <c r="B77" s="21">
+        <v>3.1706640160541831E-2</v>
+      </c>
+      <c r="C77" s="21">
+        <v>0.11132685425812117</v>
+      </c>
+      <c r="D77" s="21">
+        <v>9.5928919854508965E-2</v>
+      </c>
+      <c r="E77" s="21">
+        <v>0.18944338755800827</v>
+      </c>
+      <c r="F77" s="21">
+        <v>0</v>
+      </c>
+      <c r="G77" s="26">
+        <v>0.44128478999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="25"/>
+      <c r="B78" s="21">
+        <v>4.4195707692307696E-3</v>
+      </c>
+      <c r="C78" s="21">
+        <v>0.11597339670329669</v>
+      </c>
+      <c r="D78" s="21">
+        <v>3.9913445714285713E-2</v>
+      </c>
+      <c r="E78" s="21">
+        <v>0.21129040021978024</v>
+      </c>
+      <c r="F78" s="21">
+        <v>0</v>
+      </c>
+      <c r="G78" s="26">
+        <v>0.46610431000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="25"/>
+      <c r="B79" s="21">
+        <v>3.0197114079728582E-3</v>
+      </c>
+      <c r="C79" s="21">
+        <v>9.9464811280746399E-2</v>
+      </c>
+      <c r="D79" s="21">
+        <v>3.3862381679389313E-2</v>
+      </c>
+      <c r="E79" s="21">
+        <v>0.21590821914758268</v>
+      </c>
+      <c r="F79" s="21">
+        <v>0</v>
+      </c>
+      <c r="G79" s="26">
+        <v>0.47915541</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="25"/>
+      <c r="B80" s="21">
+        <v>5.0481247456901175E-3</v>
+      </c>
+      <c r="C80" s="21">
+        <v>0.10324649255808972</v>
+      </c>
+      <c r="D80" s="21">
+        <v>3.2437147339115541E-2</v>
+      </c>
+      <c r="E80" s="21">
+        <v>0.23969558646536035</v>
+      </c>
+      <c r="F80" s="21">
+        <v>0</v>
+      </c>
+      <c r="G80" s="26">
+        <v>0.49482430999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="25"/>
+      <c r="B81" s="21">
+        <v>5.1169559983395597E-3</v>
+      </c>
+      <c r="C81" s="21">
+        <v>0.11843651639684516</v>
+      </c>
+      <c r="D81" s="21">
+        <v>3.0861342880863424E-2</v>
+      </c>
+      <c r="E81" s="21">
+        <v>0.23747477013283519</v>
+      </c>
+      <c r="F81" s="21">
+        <v>0</v>
+      </c>
+      <c r="G81" s="26">
+        <v>0.48312105999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="25"/>
+      <c r="B82" s="21">
+        <v>0</v>
+      </c>
+      <c r="C82" s="21">
+        <v>0.10506251248787585</v>
+      </c>
+      <c r="D82" s="21">
+        <v>4.1981827109602327E-2</v>
+      </c>
+      <c r="E82" s="21">
+        <v>0.25522722878273524</v>
+      </c>
+      <c r="F82" s="21">
+        <v>0</v>
+      </c>
+      <c r="G82" s="26">
+        <v>0.41446055999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="27"/>
+      <c r="B83" s="20">
+        <v>9.567154554759468E-4</v>
+      </c>
+      <c r="C83" s="20">
+        <v>9.6718246559763452E-2</v>
+      </c>
+      <c r="D83" s="20">
+        <v>2.5615935289434778E-2</v>
+      </c>
+      <c r="E83" s="20">
+        <v>0.2495420593654043</v>
+      </c>
+      <c r="F83" s="20">
+        <v>0</v>
+      </c>
+      <c r="G83" s="28">
+        <v>0.44977171999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" s="23">
+        <v>4.5029544954495453E-2</v>
+      </c>
+      <c r="C86" s="23">
+        <v>1.6535285428542854E-2</v>
+      </c>
+      <c r="D86" s="23">
+        <v>0</v>
+      </c>
+      <c r="E86" s="23">
+        <v>2.5231323132313232E-3</v>
+      </c>
+      <c r="F86" s="23">
+        <v>1.4674154715471548E-2</v>
+      </c>
+      <c r="G86" s="24">
+        <v>0.81879895000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="25"/>
+      <c r="B87" s="21">
+        <v>5.1109840829759653E-2</v>
+      </c>
+      <c r="C87" s="21">
+        <v>1.3687211429141319E-2</v>
+      </c>
+      <c r="D87" s="21">
+        <v>0</v>
+      </c>
+      <c r="E87" s="21">
+        <v>2.9899870350054854E-5</v>
+      </c>
+      <c r="F87" s="21">
+        <v>2.2172721452079387E-2</v>
+      </c>
+      <c r="G87" s="26">
+        <v>0.80174230000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="25"/>
+      <c r="B88" s="21">
+        <v>4.4006887218793547E-2</v>
+      </c>
+      <c r="C88" s="21">
+        <v>2.3853961974915388E-2</v>
+      </c>
+      <c r="D88" s="21">
+        <v>0</v>
+      </c>
+      <c r="E88" s="21">
+        <v>0</v>
+      </c>
+      <c r="F88" s="21">
+        <v>1.7004210730639058E-2</v>
+      </c>
+      <c r="G88" s="26">
+        <v>0.81212823000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="25"/>
+      <c r="B89" s="21">
+        <v>4.3007699917635221E-2</v>
+      </c>
+      <c r="C89" s="21">
+        <v>2.6515086208474422E-2</v>
+      </c>
+      <c r="D89" s="21">
+        <v>0</v>
+      </c>
+      <c r="E89" s="21">
+        <v>1.1955363869314541E-2</v>
+      </c>
+      <c r="F89" s="21">
+        <v>2.4783385009609228E-2</v>
+      </c>
+      <c r="G89" s="26">
+        <v>0.76144296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="25"/>
+      <c r="B90" s="21">
+        <v>5.3969146362503599E-2</v>
+      </c>
+      <c r="C90" s="21">
+        <v>2.6437618038914982E-2</v>
+      </c>
+      <c r="D90" s="21">
+        <v>0</v>
+      </c>
+      <c r="E90" s="21">
+        <v>9.293618326464104E-3</v>
+      </c>
+      <c r="F90" s="21">
+        <v>2.2853401897824213E-2</v>
+      </c>
+      <c r="G90" s="26">
+        <v>0.77772045000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="25"/>
+      <c r="B91" s="21">
+        <v>6.102916247450714E-2</v>
+      </c>
+      <c r="C91" s="21">
+        <v>1.9646773429154125E-2</v>
+      </c>
+      <c r="D91" s="21">
+        <v>0</v>
+      </c>
+      <c r="E91" s="21">
+        <v>7.6235137418665623E-3</v>
+      </c>
+      <c r="F91" s="21">
+        <v>2.4143824706225114E-2</v>
+      </c>
+      <c r="G91" s="26">
+        <v>0.79440195000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="25"/>
+      <c r="B92" s="21">
+        <v>6.9244475110397427E-2</v>
+      </c>
+      <c r="C92" s="21">
+        <v>9.7339665796868733E-3</v>
+      </c>
+      <c r="D92" s="21">
+        <v>0</v>
+      </c>
+      <c r="E92" s="21">
+        <v>1.8969598554797271E-3</v>
+      </c>
+      <c r="F92" s="21">
+        <v>2.0573110297069448E-2</v>
+      </c>
+      <c r="G92" s="26">
+        <v>0.78141119000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="25"/>
+      <c r="B93" s="21">
+        <v>5.092533586088363E-2</v>
+      </c>
+      <c r="C93" s="21">
+        <v>3.0257769891820847E-2</v>
+      </c>
+      <c r="D93" s="21">
+        <v>0</v>
+      </c>
+      <c r="E93" s="21">
+        <v>1.2033807501769286E-3</v>
+      </c>
+      <c r="F93" s="21">
+        <v>3.1379984733596197E-2</v>
+      </c>
+      <c r="G93" s="26">
+        <v>0.77122400999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="25"/>
+      <c r="B94" s="21">
+        <v>3.1190454535786449E-2</v>
+      </c>
+      <c r="C94" s="21">
+        <v>1.7289092417313624E-2</v>
+      </c>
+      <c r="D94" s="21">
+        <v>0</v>
+      </c>
+      <c r="E94" s="21">
+        <v>5.6765925768371796E-5</v>
+      </c>
+      <c r="F94" s="21">
+        <v>2.0737673721152827E-2</v>
+      </c>
+      <c r="G94" s="26">
+        <v>0.80214525000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="25"/>
+      <c r="B95" s="21">
+        <v>6.0442493287137293E-2</v>
+      </c>
+      <c r="C95" s="21">
+        <v>1.1943650281507146E-2</v>
+      </c>
+      <c r="D95" s="21">
+        <v>0</v>
+      </c>
+      <c r="E95" s="21">
+        <v>4.0185159159809442E-3</v>
+      </c>
+      <c r="F95" s="21">
+        <v>2.5614534863577305E-2</v>
+      </c>
+      <c r="G95" s="26">
+        <v>0.79284233000000004</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="25"/>
+      <c r="B96" s="21">
+        <v>5.3356496917851298E-2</v>
+      </c>
+      <c r="C96" s="21">
+        <v>2.7758290350987547E-3</v>
+      </c>
+      <c r="D96" s="21">
+        <v>0</v>
+      </c>
+      <c r="E96" s="21">
+        <v>0</v>
+      </c>
+      <c r="F96" s="21">
+        <v>1.4571831173732544E-2</v>
+      </c>
+      <c r="G96" s="26">
+        <v>0.79704273999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="25"/>
+      <c r="B97" s="21">
+        <v>8.9895034696406445E-2</v>
+      </c>
+      <c r="C97" s="21">
+        <v>2.0190446096654277E-3</v>
+      </c>
+      <c r="D97" s="21">
+        <v>0</v>
+      </c>
+      <c r="E97" s="21">
+        <v>0</v>
+      </c>
+      <c r="F97" s="21">
+        <v>2.8012228624535316E-2</v>
+      </c>
+      <c r="G97" s="26">
+        <v>0.73955484000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="25"/>
+      <c r="B98" s="21">
+        <v>5.3857466908021269E-2</v>
+      </c>
+      <c r="C98" s="21">
+        <v>2.1736560696911413E-3</v>
+      </c>
+      <c r="D98" s="21">
+        <v>0</v>
+      </c>
+      <c r="E98" s="21">
+        <v>0</v>
+      </c>
+      <c r="F98" s="21">
+        <v>1.25289392465211E-2</v>
+      </c>
+      <c r="G98" s="26">
+        <v>0.96036712999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="25"/>
+      <c r="B99" s="21">
+        <v>7.2005553062392674E-2</v>
+      </c>
+      <c r="C99" s="21">
+        <v>1.7971869834001144E-2</v>
+      </c>
+      <c r="D99" s="21">
+        <v>0</v>
+      </c>
+      <c r="E99" s="21">
+        <v>0</v>
+      </c>
+      <c r="F99" s="21">
+        <v>2.3008723526044647E-2</v>
+      </c>
+      <c r="G99" s="26">
+        <v>0.58821694999999996</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="25"/>
+      <c r="B100" s="21">
+        <v>2.209482434478742E-2</v>
+      </c>
+      <c r="C100" s="21">
+        <v>1.4156016307513106E-4</v>
+      </c>
+      <c r="D100" s="21">
+        <v>0</v>
+      </c>
+      <c r="E100" s="21">
+        <v>0</v>
+      </c>
+      <c r="F100" s="21">
+        <v>9.934631450203844E-3</v>
+      </c>
+      <c r="G100" s="26">
+        <v>0.82646534999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="25"/>
+      <c r="B101" s="21">
+        <v>3.1141330259436866E-2</v>
+      </c>
+      <c r="C101" s="21">
+        <v>0</v>
+      </c>
+      <c r="D101" s="21">
+        <v>0</v>
+      </c>
+      <c r="E101" s="21">
+        <v>0</v>
+      </c>
+      <c r="F101" s="21">
+        <v>3.1984723964096893E-3</v>
+      </c>
+      <c r="G101" s="26">
+        <v>0.82149620999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="25"/>
+      <c r="B102" s="21">
+        <v>4.1012702617683403E-2</v>
+      </c>
+      <c r="C102" s="21">
+        <v>5.027197955285923E-3</v>
+      </c>
+      <c r="D102" s="21">
+        <v>0</v>
+      </c>
+      <c r="E102" s="21">
+        <v>3.8440757218290082E-3</v>
+      </c>
+      <c r="F102" s="21">
+        <v>1.2323176497022807E-2</v>
+      </c>
+      <c r="G102" s="26">
+        <v>0.79864555999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="25"/>
+      <c r="B103" s="21">
+        <v>4.5499492279184685E-2</v>
+      </c>
+      <c r="C103" s="21">
+        <v>2.6396223594811613E-3</v>
+      </c>
+      <c r="D103" s="21">
+        <v>0</v>
+      </c>
+      <c r="E103" s="21">
+        <v>1.9342670784434836E-3</v>
+      </c>
+      <c r="F103" s="21">
+        <v>1.6126021741815936E-2</v>
+      </c>
+      <c r="G103" s="26">
+        <v>0.79065107000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="25"/>
+      <c r="B104" s="21">
+        <v>2.8199370237668695E-2</v>
+      </c>
+      <c r="C104" s="21">
+        <v>2.4995502209482858E-3</v>
+      </c>
+      <c r="D104" s="21">
+        <v>0</v>
+      </c>
+      <c r="E104" s="21">
+        <v>0</v>
+      </c>
+      <c r="F104" s="21">
+        <v>6.7798701779529444E-3</v>
+      </c>
+      <c r="G104" s="26">
+        <v>0.82749324000000002</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="25"/>
+      <c r="B105" s="21">
+        <v>4.6635715392388012E-2</v>
+      </c>
+      <c r="C105" s="21">
+        <v>1.2054750870102167E-2</v>
+      </c>
+      <c r="D105" s="21">
+        <v>0</v>
+      </c>
+      <c r="E105" s="21">
+        <v>0</v>
+      </c>
+      <c r="F105" s="21">
+        <v>5.4554119232064673E-3</v>
+      </c>
+      <c r="G105" s="26">
+        <v>0.79742743999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="25"/>
+      <c r="B106" s="21">
+        <v>1.658277318855287E-2</v>
+      </c>
+      <c r="C106" s="21">
+        <v>1.3261050639334282E-2</v>
+      </c>
+      <c r="D106" s="21">
+        <v>0</v>
+      </c>
+      <c r="E106" s="21">
+        <v>3.5526263446316214E-4</v>
+      </c>
+      <c r="F106" s="21">
+        <v>0</v>
+      </c>
+      <c r="G106" s="26">
+        <v>0.84007418</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="25"/>
+      <c r="B107" s="21">
+        <v>3.1132296956402523E-2</v>
+      </c>
+      <c r="C107" s="21">
+        <v>8.035446211498036E-3</v>
+      </c>
+      <c r="D107" s="21">
+        <v>0</v>
+      </c>
+      <c r="E107" s="21">
+        <v>3.3584471254912715E-3</v>
+      </c>
+      <c r="F107" s="21">
+        <v>4.5916926240745825E-3</v>
+      </c>
+      <c r="G107" s="26">
+        <v>0.81408720000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="25"/>
+      <c r="B108" s="21">
+        <v>5.1383331169433367E-2</v>
+      </c>
+      <c r="C108" s="19">
+        <v>2.0646887786330333E-2</v>
+      </c>
+      <c r="D108" s="21">
+        <v>0</v>
+      </c>
+      <c r="E108" s="19">
+        <v>7.8902174719465822E-3</v>
+      </c>
+      <c r="F108" s="21">
+        <v>1.0289326347027729E-2</v>
+      </c>
+      <c r="G108" s="26">
+        <v>0.79722868000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="25"/>
+      <c r="B109" s="19">
+        <v>3.4101706002223044E-2</v>
+      </c>
+      <c r="C109" s="19">
+        <v>1.0203753334568359E-2</v>
+      </c>
+      <c r="D109" s="21">
+        <v>0</v>
+      </c>
+      <c r="E109" s="19">
+        <v>2.8284102445350129E-3</v>
+      </c>
+      <c r="F109" s="21">
+        <v>1.0185668858836606E-2</v>
+      </c>
+      <c r="G109" s="26">
+        <v>0.82869174999999995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="25"/>
+      <c r="B110" s="21">
+        <v>2.6164787493893504E-2</v>
+      </c>
+      <c r="C110" s="21">
+        <v>1.4097882169027845E-2</v>
+      </c>
+      <c r="D110" s="21">
+        <v>0</v>
+      </c>
+      <c r="E110" s="21">
+        <v>3.3715122618466049E-2</v>
+      </c>
+      <c r="F110" s="21">
+        <v>0</v>
+      </c>
+      <c r="G110" s="26">
+        <v>0.79100307000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="27"/>
+      <c r="B111" s="20">
+        <v>3.3008597321428572E-2</v>
+      </c>
+      <c r="C111" s="20">
+        <v>3.2165357142857143E-3</v>
+      </c>
+      <c r="D111" s="20">
+        <v>0</v>
+      </c>
+      <c r="E111" s="20">
+        <v>1.3188629662698412E-2</v>
+      </c>
+      <c r="F111" s="20">
+        <v>0</v>
+      </c>
+      <c r="G111" s="28">
+        <v>0.82507733999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369FF534-D450-D444-8FE0-76AD3F4AFB95}">
+  <dimension ref="A1:K101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="29"/>
+      <c r="B1" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30">
+        <v>539.16999999999996</v>
+      </c>
+      <c r="C2" s="30">
+        <v>130.33000000000001</v>
+      </c>
+      <c r="D2" s="30">
+        <v>142</v>
+      </c>
+      <c r="E2" s="30">
+        <v>125.79</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30">
+        <v>545.15</v>
+      </c>
+      <c r="C3" s="30">
+        <v>208.85</v>
+      </c>
+      <c r="D3" s="30">
+        <v>183.95</v>
+      </c>
+      <c r="E3" s="30">
+        <v>173.36</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30">
+        <v>361.69</v>
+      </c>
+      <c r="C4" s="30">
+        <v>135.31</v>
+      </c>
+      <c r="D4" s="30">
+        <v>126.35</v>
+      </c>
+      <c r="E4" s="30">
+        <v>121.04</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30">
+        <v>335.87</v>
+      </c>
+      <c r="C5" s="30">
+        <v>136.44</v>
+      </c>
+      <c r="D5" s="30">
+        <v>138.1</v>
+      </c>
+      <c r="E5" s="30">
+        <v>117.62</v>
+      </c>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30">
+        <v>687.87</v>
+      </c>
+      <c r="C6" s="30">
+        <v>230.76</v>
+      </c>
+      <c r="D6" s="30">
+        <v>233.26</v>
+      </c>
+      <c r="E6" s="30">
+        <v>180.46</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30">
+        <v>691.98</v>
+      </c>
+      <c r="C7" s="30">
+        <v>138.26</v>
+      </c>
+      <c r="D7" s="30">
+        <v>189.92</v>
+      </c>
+      <c r="E7" s="30">
+        <v>177.66</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30">
+        <v>580.9</v>
+      </c>
+      <c r="C8" s="30">
+        <v>191.67</v>
+      </c>
+      <c r="D8" s="30">
+        <v>165.54</v>
+      </c>
+      <c r="E8" s="30">
+        <v>154.61000000000001</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30">
+        <v>579.58000000000004</v>
+      </c>
+      <c r="C9" s="30">
+        <v>150.88</v>
+      </c>
+      <c r="D9" s="30">
+        <v>183.41</v>
+      </c>
+      <c r="E9" s="30">
+        <v>174.87</v>
+      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30">
+        <v>439.28</v>
+      </c>
+      <c r="C10" s="30">
+        <v>171.35</v>
+      </c>
+      <c r="D10" s="30">
+        <v>147.71</v>
+      </c>
+      <c r="E10" s="30">
+        <v>144.46</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30">
+        <v>425.64</v>
+      </c>
+      <c r="C11" s="30">
+        <v>150.52000000000001</v>
+      </c>
+      <c r="D11" s="30">
+        <v>172.08</v>
+      </c>
+      <c r="E11" s="30">
+        <v>163.11000000000001</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30">
+        <v>381.09</v>
+      </c>
+      <c r="C12" s="30">
+        <v>126.95</v>
+      </c>
+      <c r="D12" s="30">
+        <v>188.97</v>
+      </c>
+      <c r="E12" s="30">
+        <v>151.86000000000001</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="30"/>
+      <c r="B13" s="30">
+        <v>425.55</v>
+      </c>
+      <c r="C13" s="30">
+        <v>117.09</v>
+      </c>
+      <c r="D13" s="30">
+        <v>165.51</v>
+      </c>
+      <c r="E13" s="30">
+        <v>118.65</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="30"/>
+      <c r="B14" s="30">
+        <v>368.49</v>
+      </c>
+      <c r="C14" s="30">
+        <v>141.94999999999999</v>
+      </c>
+      <c r="D14" s="30">
+        <v>121.44</v>
+      </c>
+      <c r="E14" s="30">
+        <v>117.97</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30">
+        <v>481.34</v>
+      </c>
+      <c r="C15" s="30">
+        <v>155.46</v>
+      </c>
+      <c r="D15" s="30">
+        <v>152.68</v>
+      </c>
+      <c r="E15" s="30">
+        <v>140.51</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30">
+        <v>449.2</v>
+      </c>
+      <c r="C16" s="30">
+        <v>177.59</v>
+      </c>
+      <c r="D16" s="30">
+        <v>160.83000000000001</v>
+      </c>
+      <c r="E16" s="30">
+        <v>142.03</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30">
+        <v>550.41999999999996</v>
+      </c>
+      <c r="C17" s="30">
+        <v>192.85</v>
+      </c>
+      <c r="D17" s="30">
+        <v>162.86000000000001</v>
+      </c>
+      <c r="E17" s="30">
+        <v>166.6</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30">
+        <v>541.34</v>
+      </c>
+      <c r="C18" s="30">
+        <v>177.79</v>
+      </c>
+      <c r="D18" s="30">
+        <v>171.83</v>
+      </c>
+      <c r="E18" s="30">
+        <v>154.62</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30">
+        <v>506.78</v>
+      </c>
+      <c r="C19" s="30">
+        <v>161.57</v>
+      </c>
+      <c r="D19" s="30">
+        <v>159.5</v>
+      </c>
+      <c r="E19" s="30">
+        <v>167.67</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30">
+        <v>487.55</v>
+      </c>
+      <c r="C20" s="30">
+        <v>180.54</v>
+      </c>
+      <c r="D20" s="30">
+        <v>124.65</v>
+      </c>
+      <c r="E20" s="30">
+        <v>130.97</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30">
+        <v>501.8</v>
+      </c>
+      <c r="C21" s="30">
+        <v>159.44999999999999</v>
+      </c>
+      <c r="D21" s="30">
+        <v>143.85</v>
+      </c>
+      <c r="E21" s="30">
+        <v>154.46</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30">
+        <v>396.14</v>
+      </c>
+      <c r="C22" s="30">
+        <v>151.41</v>
+      </c>
+      <c r="D22" s="30">
+        <v>166.07</v>
+      </c>
+      <c r="E22" s="30">
+        <v>130.16999999999999</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30">
+        <v>531.45000000000005</v>
+      </c>
+      <c r="C23" s="30">
+        <v>147.66</v>
+      </c>
+      <c r="D23" s="30">
+        <v>166.41</v>
+      </c>
+      <c r="E23" s="30">
+        <v>125.65</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30">
+        <v>488.22</v>
+      </c>
+      <c r="C24" s="30">
+        <v>173.05</v>
+      </c>
+      <c r="D24" s="30">
+        <v>198.1</v>
+      </c>
+      <c r="E24" s="30">
+        <v>167.78</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30">
+        <v>536.53</v>
+      </c>
+      <c r="C25" s="30">
+        <v>151.34</v>
+      </c>
+      <c r="D25" s="30">
+        <v>211.13</v>
+      </c>
+      <c r="E25" s="30">
+        <v>156.06</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30">
+        <v>378.4</v>
+      </c>
+      <c r="C26" s="30">
+        <v>156.26</v>
+      </c>
+      <c r="D26" s="30">
+        <v>141.03</v>
+      </c>
+      <c r="E26" s="30">
+        <v>131.22</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30">
+        <v>414.2</v>
+      </c>
+      <c r="C27" s="30">
+        <v>205.27</v>
+      </c>
+      <c r="D27" s="30">
+        <v>152.47</v>
+      </c>
+      <c r="E27" s="30">
+        <v>136.06</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30">
+        <v>520.29</v>
+      </c>
+      <c r="C28" s="30">
+        <v>192.72</v>
+      </c>
+      <c r="D28" s="30">
+        <v>188.46</v>
+      </c>
+      <c r="E28" s="30">
+        <v>149.79</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30">
+        <v>598.21</v>
+      </c>
+      <c r="C29" s="30">
+        <v>168.66</v>
+      </c>
+      <c r="D29" s="30">
+        <v>155.66999999999999</v>
+      </c>
+      <c r="E29" s="30">
+        <v>187.39</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30">
+        <v>530.47</v>
+      </c>
+      <c r="C30" s="30">
+        <v>129.9</v>
+      </c>
+      <c r="D30" s="30">
+        <v>168.98</v>
+      </c>
+      <c r="E30" s="30">
+        <v>183.57</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30">
+        <v>386.9</v>
+      </c>
+      <c r="C31" s="30">
+        <v>143.25</v>
+      </c>
+      <c r="D31" s="30">
+        <v>138.27000000000001</v>
+      </c>
+      <c r="E31" s="30">
+        <v>129.47</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30">
+        <v>576.26</v>
+      </c>
+      <c r="C32" s="30">
+        <v>155.91</v>
+      </c>
+      <c r="D32" s="30">
+        <v>145.13</v>
+      </c>
+      <c r="E32" s="30">
+        <v>137.58000000000001</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30">
+        <v>474.9</v>
+      </c>
+      <c r="C33" s="30">
+        <v>177.36</v>
+      </c>
+      <c r="D33" s="30">
+        <v>160.32</v>
+      </c>
+      <c r="E33" s="30">
+        <v>153.53</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30">
+        <v>490.45</v>
+      </c>
+      <c r="C34" s="30">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="D34" s="30">
+        <v>146.86000000000001</v>
+      </c>
+      <c r="E34" s="30">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30">
+        <v>462.72</v>
+      </c>
+      <c r="C35" s="30">
+        <v>147.16999999999999</v>
+      </c>
+      <c r="D35" s="30">
+        <v>135.63</v>
+      </c>
+      <c r="E35" s="30">
+        <v>141.79</v>
+      </c>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30">
+        <v>450.82</v>
+      </c>
+      <c r="C36" s="30">
+        <v>155.35</v>
+      </c>
+      <c r="D36" s="30">
+        <v>130.05000000000001</v>
+      </c>
+      <c r="E36" s="30">
+        <v>145.47999999999999</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30">
+        <v>366.1</v>
+      </c>
+      <c r="C37" s="30">
+        <v>142.54</v>
+      </c>
+      <c r="D37" s="30">
+        <v>157.97999999999999</v>
+      </c>
+      <c r="E37" s="30">
+        <v>139.97999999999999</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30">
+        <v>531.86</v>
+      </c>
+      <c r="C38" s="30">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="D38" s="30">
+        <v>157.38</v>
+      </c>
+      <c r="E38" s="30">
+        <v>133.74</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30">
+        <v>696.25</v>
+      </c>
+      <c r="C39" s="30">
+        <v>139.37</v>
+      </c>
+      <c r="D39" s="30">
+        <v>145.16</v>
+      </c>
+      <c r="E39" s="30">
+        <v>165.37</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30">
+        <v>450.3</v>
+      </c>
+      <c r="C40" s="30">
+        <v>125.69</v>
+      </c>
+      <c r="D40" s="30">
+        <v>140.88999999999999</v>
+      </c>
+      <c r="E40" s="30">
+        <v>154.16</v>
+      </c>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30">
+        <v>497.36</v>
+      </c>
+      <c r="C41" s="30">
+        <v>124.88</v>
+      </c>
+      <c r="D41" s="30">
+        <v>165.49</v>
+      </c>
+      <c r="E41" s="30">
+        <v>124.44</v>
+      </c>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30">
+        <v>427.6</v>
+      </c>
+      <c r="C42" s="30">
+        <v>145.04</v>
+      </c>
+      <c r="D42" s="30">
+        <v>166.31</v>
+      </c>
+      <c r="E42" s="30">
+        <v>146.1</v>
+      </c>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30">
+        <v>476.28</v>
+      </c>
+      <c r="C43" s="30">
+        <v>105.07</v>
+      </c>
+      <c r="D43" s="30">
+        <v>132.29</v>
+      </c>
+      <c r="E43" s="30">
+        <v>129.62</v>
+      </c>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30">
+        <v>321.51</v>
+      </c>
+      <c r="C44" s="30">
+        <v>136.09</v>
+      </c>
+      <c r="D44" s="30">
+        <v>120.57</v>
+      </c>
+      <c r="E44" s="30">
+        <v>121.87</v>
+      </c>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30">
+        <v>370.17</v>
+      </c>
+      <c r="C45" s="30">
+        <v>146.85</v>
+      </c>
+      <c r="D45" s="30">
+        <v>140.57</v>
+      </c>
+      <c r="E45" s="30">
+        <v>137.12</v>
+      </c>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="30"/>
+      <c r="B46" s="30">
+        <v>342.07</v>
+      </c>
+      <c r="C46" s="30">
+        <v>117.27</v>
+      </c>
+      <c r="D46" s="30">
+        <v>127.86</v>
+      </c>
+      <c r="E46" s="30">
+        <v>140.74</v>
+      </c>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="30"/>
+      <c r="B47" s="30">
+        <v>503.21</v>
+      </c>
+      <c r="C47" s="30">
+        <v>104.09</v>
+      </c>
+      <c r="D47" s="30">
+        <v>142.97999999999999</v>
+      </c>
+      <c r="E47" s="30">
+        <v>131.58000000000001</v>
+      </c>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30">
+        <v>369.03</v>
+      </c>
+      <c r="C48" s="30">
+        <v>92.4</v>
+      </c>
+      <c r="D48" s="30">
+        <v>110.85</v>
+      </c>
+      <c r="E48" s="30">
+        <v>117.33</v>
+      </c>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="30"/>
+      <c r="B49" s="30">
+        <v>390.41</v>
+      </c>
+      <c r="C49" s="30">
+        <v>141.38</v>
+      </c>
+      <c r="D49" s="30">
+        <v>107.86</v>
+      </c>
+      <c r="E49" s="30">
+        <v>124.47</v>
+      </c>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30">
+        <v>391.21</v>
+      </c>
+      <c r="C50" s="30">
+        <v>110.5</v>
+      </c>
+      <c r="D50" s="30">
+        <v>125.44</v>
+      </c>
+      <c r="E50" s="30">
+        <v>148.78</v>
+      </c>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30">
+        <v>369.65</v>
+      </c>
+      <c r="C51" s="30">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="D51" s="30">
+        <v>124.69</v>
+      </c>
+      <c r="E51" s="30">
+        <v>115.55</v>
+      </c>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30">
+        <v>492.74</v>
+      </c>
+      <c r="C52" s="30">
+        <v>194.04</v>
+      </c>
+      <c r="D52" s="30">
+        <v>155.63999999999999</v>
+      </c>
+      <c r="E52" s="30">
+        <v>131.63999999999999</v>
+      </c>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="30"/>
+      <c r="B53" s="30">
+        <v>617.38</v>
+      </c>
+      <c r="C53" s="30">
+        <v>118.5</v>
+      </c>
+      <c r="D53" s="30">
+        <v>184.21</v>
+      </c>
+      <c r="E53" s="30">
+        <v>216.31</v>
+      </c>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30">
+        <v>318.86</v>
+      </c>
+      <c r="C54" s="30">
+        <v>152.55000000000001</v>
+      </c>
+      <c r="D54" s="30">
+        <v>129.12</v>
+      </c>
+      <c r="E54" s="30">
+        <v>111.39</v>
+      </c>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30">
+        <v>446.03</v>
+      </c>
+      <c r="C55" s="30">
+        <v>187.14</v>
+      </c>
+      <c r="D55" s="30">
+        <v>126.29</v>
+      </c>
+      <c r="E55" s="30">
+        <v>124.33</v>
+      </c>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="30"/>
+      <c r="B56" s="30">
+        <v>584.64</v>
+      </c>
+      <c r="C56" s="30">
+        <v>193.29</v>
+      </c>
+      <c r="D56" s="30">
+        <v>185.46</v>
+      </c>
+      <c r="E56" s="30">
+        <v>191.23</v>
+      </c>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="30"/>
+      <c r="B57" s="30">
+        <v>665.95</v>
+      </c>
+      <c r="C57" s="30">
+        <v>151.22</v>
+      </c>
+      <c r="D57" s="30">
+        <v>172.62</v>
+      </c>
+      <c r="E57" s="30">
+        <v>152.54</v>
+      </c>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30">
+        <v>489.47</v>
+      </c>
+      <c r="C58" s="30">
+        <v>179.79</v>
+      </c>
+      <c r="D58" s="30">
+        <v>141.91999999999999</v>
+      </c>
+      <c r="E58" s="30">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30">
+        <v>631.49</v>
+      </c>
+      <c r="C59" s="30">
+        <v>143.25</v>
+      </c>
+      <c r="D59" s="30">
+        <v>190.53</v>
+      </c>
+      <c r="E59" s="30">
+        <v>137.41999999999999</v>
+      </c>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="30"/>
+      <c r="B60" s="30">
+        <v>450.23</v>
+      </c>
+      <c r="C60" s="30">
+        <v>190.25</v>
+      </c>
+      <c r="D60" s="30">
+        <v>166.04</v>
+      </c>
+      <c r="E60" s="30">
+        <v>149.56</v>
+      </c>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30">
+        <v>491.31</v>
+      </c>
+      <c r="C61" s="30">
+        <v>156.15</v>
+      </c>
+      <c r="D61" s="30">
+        <v>185.63</v>
+      </c>
+      <c r="E61" s="30">
+        <v>170.25</v>
+      </c>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="30"/>
+      <c r="B62" s="30">
+        <v>440.16</v>
+      </c>
+      <c r="C62" s="30">
+        <v>162.61000000000001</v>
+      </c>
+      <c r="D62" s="30">
+        <v>182.99</v>
+      </c>
+      <c r="E62" s="30">
+        <v>154.97</v>
+      </c>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="30"/>
+      <c r="B63" s="30">
+        <v>411.95</v>
+      </c>
+      <c r="C63" s="30">
+        <v>147.41999999999999</v>
+      </c>
+      <c r="D63" s="30">
+        <v>159.5</v>
+      </c>
+      <c r="E63" s="30">
+        <v>137.24</v>
+      </c>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="30"/>
+      <c r="B64" s="30">
+        <v>319.60000000000002</v>
+      </c>
+      <c r="C64" s="30">
+        <v>144.44999999999999</v>
+      </c>
+      <c r="D64" s="30">
+        <v>151.30000000000001</v>
+      </c>
+      <c r="E64" s="30">
+        <v>147.22999999999999</v>
+      </c>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="30"/>
+      <c r="B65" s="30">
+        <v>411.63</v>
+      </c>
+      <c r="C65" s="30">
+        <v>172.91</v>
+      </c>
+      <c r="D65" s="30">
+        <v>152.21</v>
+      </c>
+      <c r="E65" s="30">
+        <v>155.37</v>
+      </c>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="30"/>
+      <c r="B66" s="30">
+        <v>585.44000000000005</v>
+      </c>
+      <c r="C66" s="30">
+        <v>172.34</v>
+      </c>
+      <c r="D66" s="30">
+        <v>152.91</v>
+      </c>
+      <c r="E66" s="30">
+        <v>134.07</v>
+      </c>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="30"/>
+      <c r="B67" s="30">
+        <v>409.23</v>
+      </c>
+      <c r="C67" s="30">
+        <v>147.47999999999999</v>
+      </c>
+      <c r="D67" s="30">
+        <v>146.87</v>
+      </c>
+      <c r="E67" s="30">
+        <v>178.54</v>
+      </c>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="30"/>
+      <c r="B68" s="30">
+        <v>436.59</v>
+      </c>
+      <c r="C68" s="30">
+        <v>173.98</v>
+      </c>
+      <c r="D68" s="30">
+        <v>178.23</v>
+      </c>
+      <c r="E68" s="30">
+        <v>163.84</v>
+      </c>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="30"/>
+      <c r="B69" s="30">
+        <v>399.14</v>
+      </c>
+      <c r="C69" s="30">
+        <v>140.25</v>
+      </c>
+      <c r="D69" s="30">
+        <v>171.93</v>
+      </c>
+      <c r="E69" s="30">
+        <v>158.41999999999999</v>
+      </c>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="30"/>
+      <c r="B70" s="30">
+        <v>493.25</v>
+      </c>
+      <c r="C70" s="30">
+        <v>144.12</v>
+      </c>
+      <c r="D70" s="30">
+        <v>164.57</v>
+      </c>
+      <c r="E70" s="30">
+        <v>129.97999999999999</v>
+      </c>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="30"/>
+      <c r="B71" s="30">
+        <v>478.57</v>
+      </c>
+      <c r="C71" s="30">
+        <v>148.53</v>
+      </c>
+      <c r="D71" s="30">
+        <v>156.32</v>
+      </c>
+      <c r="E71" s="30">
+        <v>128.63999999999999</v>
+      </c>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="30"/>
+      <c r="B72" s="30">
+        <v>435.19</v>
+      </c>
+      <c r="C72" s="30">
+        <v>137.31</v>
+      </c>
+      <c r="D72" s="30">
+        <v>218.7</v>
+      </c>
+      <c r="E72" s="30">
+        <v>138.66999999999999</v>
+      </c>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="30"/>
+      <c r="B73" s="30">
+        <v>446.84</v>
+      </c>
+      <c r="C73" s="30">
+        <v>212.06</v>
+      </c>
+      <c r="D73" s="30">
+        <v>163.06</v>
+      </c>
+      <c r="E73" s="30">
+        <v>129.34</v>
+      </c>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="30"/>
+      <c r="B74" s="30">
+        <v>440.71</v>
+      </c>
+      <c r="C74" s="30">
+        <v>157.41999999999999</v>
+      </c>
+      <c r="D74" s="30">
+        <v>192.43</v>
+      </c>
+      <c r="E74" s="30">
+        <v>160.79</v>
+      </c>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="30"/>
+      <c r="B75" s="30">
+        <v>544.82000000000005</v>
+      </c>
+      <c r="C75" s="30">
+        <v>151.62</v>
+      </c>
+      <c r="D75" s="30">
+        <v>145.41</v>
+      </c>
+      <c r="E75" s="30">
+        <v>135.84</v>
+      </c>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="30"/>
+      <c r="B76" s="30">
+        <v>588.41999999999996</v>
+      </c>
+      <c r="C76" s="30">
+        <v>131.84</v>
+      </c>
+      <c r="D76" s="30">
+        <v>164.15</v>
+      </c>
+      <c r="E76" s="30">
+        <v>107.11</v>
+      </c>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="30"/>
+      <c r="B77" s="30">
+        <v>513.84</v>
+      </c>
+      <c r="C77" s="30">
+        <v>224.26</v>
+      </c>
+      <c r="D77" s="30">
+        <v>141.44</v>
+      </c>
+      <c r="E77" s="30">
+        <v>129.93</v>
+      </c>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="30"/>
+      <c r="B78" s="30">
+        <v>472.09</v>
+      </c>
+      <c r="C78" s="30">
+        <v>157.25</v>
+      </c>
+      <c r="D78" s="30">
+        <v>186.37</v>
+      </c>
+      <c r="E78" s="30">
+        <v>185.94</v>
+      </c>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="30"/>
+      <c r="B79" s="30">
+        <v>555.29999999999995</v>
+      </c>
+      <c r="C79" s="30">
+        <v>156.65</v>
+      </c>
+      <c r="D79" s="30">
+        <v>166.74</v>
+      </c>
+      <c r="E79" s="30">
+        <v>172.87</v>
+      </c>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="30"/>
+      <c r="B80" s="30">
+        <v>564.70000000000005</v>
+      </c>
+      <c r="C80" s="30">
+        <v>162.24</v>
+      </c>
+      <c r="D80" s="30">
+        <v>177.04</v>
+      </c>
+      <c r="E80" s="30">
+        <v>154.56</v>
+      </c>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="30"/>
+      <c r="B81" s="30">
+        <v>497.7</v>
+      </c>
+      <c r="C81" s="30">
+        <v>165.86</v>
+      </c>
+      <c r="D81" s="30">
+        <v>156.55000000000001</v>
+      </c>
+      <c r="E81" s="30">
+        <v>138.15</v>
+      </c>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="30"/>
+      <c r="B82" s="30">
+        <v>413.32</v>
+      </c>
+      <c r="C82" s="30">
+        <v>130.91999999999999</v>
+      </c>
+      <c r="D82" s="30">
+        <v>144.76</v>
+      </c>
+      <c r="E82" s="30">
+        <v>145.91</v>
+      </c>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="30"/>
+      <c r="B83" s="30">
+        <v>396.72</v>
+      </c>
+      <c r="C83" s="30">
+        <v>195.42</v>
+      </c>
+      <c r="D83" s="30">
+        <v>125.99</v>
+      </c>
+      <c r="E83" s="30">
+        <v>137.37</v>
+      </c>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="30"/>
+      <c r="B84" s="30">
+        <v>557.92999999999995</v>
+      </c>
+      <c r="C84" s="30">
+        <v>140.79</v>
+      </c>
+      <c r="D84" s="30">
+        <v>169.38</v>
+      </c>
+      <c r="E84" s="30">
+        <v>162.13</v>
+      </c>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="30"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="30"/>
+      <c r="B85" s="30">
+        <v>370.34</v>
+      </c>
+      <c r="C85" s="30">
+        <v>173.39</v>
+      </c>
+      <c r="D85" s="30">
+        <v>123.29</v>
+      </c>
+      <c r="E85" s="30">
+        <v>148.34</v>
+      </c>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="30"/>
+      <c r="B86" s="30">
+        <v>463.47</v>
+      </c>
+      <c r="C86" s="30">
+        <v>146.12</v>
+      </c>
+      <c r="D86" s="30">
+        <v>138.37</v>
+      </c>
+      <c r="E86" s="30">
+        <v>140.63</v>
+      </c>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="30"/>
+      <c r="B87" s="30">
+        <v>394.95</v>
+      </c>
+      <c r="C87" s="30">
+        <v>155.37</v>
+      </c>
+      <c r="D87" s="30">
+        <v>140.99</v>
+      </c>
+      <c r="E87" s="30">
+        <v>150.49</v>
+      </c>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="30"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="30"/>
+      <c r="B88" s="30">
+        <v>481.71</v>
+      </c>
+      <c r="C88" s="30">
+        <v>177.26</v>
+      </c>
+      <c r="D88" s="30">
+        <v>162.01</v>
+      </c>
+      <c r="E88" s="30">
+        <v>152.22999999999999</v>
+      </c>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="30"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="30"/>
+      <c r="B89" s="30">
+        <v>605.41</v>
+      </c>
+      <c r="C89" s="30">
+        <v>153.78</v>
+      </c>
+      <c r="D89" s="30">
+        <v>155.44999999999999</v>
+      </c>
+      <c r="E89" s="30">
+        <v>175.19</v>
+      </c>
+      <c r="G89" s="30"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="30"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="30"/>
+      <c r="B90" s="30">
+        <v>505.9</v>
+      </c>
+      <c r="C90" s="30">
+        <v>122.49</v>
+      </c>
+      <c r="D90" s="30">
+        <v>135.08000000000001</v>
+      </c>
+      <c r="E90" s="30">
+        <v>140.43</v>
+      </c>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="30"/>
+      <c r="B91" s="30">
+        <v>443.37</v>
+      </c>
+      <c r="C91" s="30">
+        <v>125.49</v>
+      </c>
+      <c r="D91" s="30">
+        <v>155.55000000000001</v>
+      </c>
+      <c r="E91" s="30">
+        <v>120.89</v>
+      </c>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="30"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="30"/>
+      <c r="B92" s="30">
+        <v>436.12</v>
+      </c>
+      <c r="C92" s="30">
+        <v>119.81</v>
+      </c>
+      <c r="D92" s="30">
+        <v>126.88</v>
+      </c>
+      <c r="E92" s="30">
+        <v>135.36000000000001</v>
+      </c>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="30"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="30"/>
+      <c r="B93" s="30">
+        <v>304.42</v>
+      </c>
+      <c r="C93" s="30">
+        <v>108.86</v>
+      </c>
+      <c r="D93" s="30">
+        <v>136.16999999999999</v>
+      </c>
+      <c r="E93" s="30">
+        <v>127.87</v>
+      </c>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
+      <c r="K93" s="30"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="30"/>
+      <c r="B94" s="30">
+        <v>389.02</v>
+      </c>
+      <c r="C94" s="30">
+        <v>133.97999999999999</v>
+      </c>
+      <c r="D94" s="30">
+        <v>121.14</v>
+      </c>
+      <c r="E94" s="30">
+        <v>121.69</v>
+      </c>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="30"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="30"/>
+      <c r="B95" s="30">
+        <v>343.64</v>
+      </c>
+      <c r="C95" s="30">
+        <v>121.43</v>
+      </c>
+      <c r="D95" s="30">
+        <v>136.28</v>
+      </c>
+      <c r="E95" s="30">
+        <v>134.66999999999999</v>
+      </c>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="30"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="30"/>
+      <c r="B96" s="30">
+        <v>404.2</v>
+      </c>
+      <c r="C96" s="30">
+        <v>129.04</v>
+      </c>
+      <c r="D96" s="30">
+        <v>138.72999999999999</v>
+      </c>
+      <c r="E96" s="30">
+        <v>134.41</v>
+      </c>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="30"/>
+      <c r="B97" s="30">
+        <v>421.35</v>
+      </c>
+      <c r="C97" s="30">
+        <v>98.25</v>
+      </c>
+      <c r="D97" s="30">
+        <v>122.29</v>
+      </c>
+      <c r="E97" s="30">
+        <v>152.57</v>
+      </c>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="30"/>
+      <c r="B98" s="30">
+        <v>354.08</v>
+      </c>
+      <c r="C98" s="30">
+        <v>127.65</v>
+      </c>
+      <c r="D98" s="30">
+        <v>117.06</v>
+      </c>
+      <c r="E98" s="30">
+        <v>111.37</v>
+      </c>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="30"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="30"/>
+      <c r="B99" s="30">
+        <v>430.97</v>
+      </c>
+      <c r="C99" s="30">
+        <v>120.18</v>
+      </c>
+      <c r="D99" s="30">
+        <v>129.53</v>
+      </c>
+      <c r="E99" s="30">
+        <v>136.72999999999999</v>
+      </c>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="30"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="30"/>
+      <c r="B100" s="30">
+        <v>413.73</v>
+      </c>
+      <c r="C100" s="30">
+        <v>108.2</v>
+      </c>
+      <c r="D100" s="30">
+        <v>120.82</v>
+      </c>
+      <c r="E100" s="30">
+        <v>132.88999999999999</v>
+      </c>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="30"/>
+      <c r="K100" s="30"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="30"/>
+      <c r="B101" s="30">
+        <v>278.14</v>
+      </c>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30">
+        <v>121.19</v>
+      </c>
+      <c r="E101" s="30">
+        <v>116.87</v>
+      </c>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59BACC8-AF7E-6442-9B25-57B99D5E3BD1}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5159,7 +9636,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B1F800-56F5-EE40-BEC8-9DDBB01724A6}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -5940,7 +10417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66AB619-A002-C94E-BAD6-63E363373A89}">
   <dimension ref="A1:AC74"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
@@ -9753,7 +14230,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15014,10 +19491,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45FD3B8-BF71-8847-A290-509FF9502D16}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15442,7 +19919,7 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="8">
         <v>3</v>
@@ -15455,7 +19932,7 @@
       </c>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -15470,7 +19947,7 @@
       </c>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="8">
         <v>6</v>
@@ -15483,7 +19960,7 @@
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="8">
         <v>6</v>
@@ -15496,7 +19973,7 @@
       </c>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="8">
         <v>11</v>
@@ -15509,7 +19986,7 @@
       </c>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="8">
         <v>205</v>
@@ -15522,7 +19999,7 @@
       </c>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="8">
         <v>2</v>
@@ -15535,7 +20012,7 @@
       </c>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="8">
         <v>26</v>
@@ -15547,8 +20024,11 @@
         <v>0.1</v>
       </c>
       <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="8">
         <v>162</v>
@@ -15561,7 +20041,7 @@
       </c>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="8">
         <v>2</v>
@@ -15574,7 +20054,7 @@
       </c>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="8">
         <v>137</v>
@@ -15587,7 +20067,7 @@
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="8">
         <v>14</v>
@@ -15600,7 +20080,7 @@
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="8">
         <v>2</v>
@@ -15613,7 +20093,7 @@
       </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="8">
         <v>0.1</v>
@@ -15626,7 +20106,7 @@
       </c>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="8">
         <v>0.1</v>
@@ -15639,7 +20119,7 @@
       </c>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="8">
         <v>1</v>
